--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_15_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_15_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1745760.097405568</v>
+        <v>1713478.693874685</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6486630.972584561</v>
+        <v>6486630.972584563</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8202768.976400676</v>
+        <v>8202768.976400673</v>
       </c>
     </row>
     <row r="11">
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>132.2265426496277</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
-        <v>301.6186538912489</v>
+        <v>59.99870653805438</v>
       </c>
       <c r="I11" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H12" t="n">
-        <v>21.69126064627714</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I12" t="n">
-        <v>21.30239922246437</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8112657109832</v>
+        <v>154.368165235535</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>102.7394132419461</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T13" t="n">
-        <v>220.8610019386828</v>
+        <v>79.50445043418918</v>
       </c>
       <c r="U13" t="n">
         <v>286.2285878140705</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>94.61130612188536</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>21.53836578803874</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
-        <v>206.9146911261644</v>
+        <v>162.7640217781763</v>
       </c>
       <c r="U14" t="n">
         <v>251.0499378478622</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>95.09008317441871</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1703,10 +1703,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H15" t="n">
-        <v>93.13436112172583</v>
+        <v>21.69126064627758</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30239922246437</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>146.9261188155349</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.7394132419461</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>195.1205252336517</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>200.1983439946917</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T17" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.0499378478622</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>269.0995950352086</v>
       </c>
       <c r="Y17" t="n">
-        <v>337.2871174976457</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1928,7 +1928,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>76.0019650891896</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1940,7 +1940,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H18" t="n">
-        <v>21.69126064627671</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I18" t="n">
         <v>21.30239922246436</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>144.2028419488563</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>220.8610019386828</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>173.9448173287653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>339.1483812619227</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H20" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T20" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>338.7266651530304</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2165,7 +2165,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>76.0019650891896</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2177,10 +2177,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H21" t="n">
-        <v>93.13436112172583</v>
+        <v>42.99365986874107</v>
       </c>
       <c r="I21" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,10 +2256,10 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H22" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>133.9954592379401</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>142.8584034680921</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>186.1308485055275</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.6062992654567</v>
+        <v>195.3237932237977</v>
       </c>
       <c r="H23" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H25" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.719582635491358</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.83385919835517</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>37.34913658019848</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>226.4037753351782</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I27" t="n">
-        <v>21.30239922246426</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2285878140705</v>
+        <v>84.63731032663992</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>94.61130612188585</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>185.5727870452279</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>266.3372994707378</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3328844140846</v>
+        <v>155.6271666441812</v>
       </c>
       <c r="H31" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.95758086636872</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,19 +3031,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>15.60943384688882</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>301.5469338223513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>65.15928918313411</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>46.58294040835201</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>28.77919024860963</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T35" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>47.6341417805023</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3356,16 +3356,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>73.62611191793475</v>
       </c>
       <c r="G36" t="n">
         <v>135.3657483393379</v>
       </c>
       <c r="H36" t="n">
-        <v>42.99365986874107</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>127.139774574928</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>137.6299675574228</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,22 +3508,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.6062992654567</v>
+        <v>384.7686046853391</v>
       </c>
       <c r="H38" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U38" t="n">
-        <v>126.7066250192816</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3644,10 +3644,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>180.2518826854705</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>155.6322839504927</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>93.21608684408596</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3678,7 +3678,7 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>146.2669950188379</v>
       </c>
     </row>
     <row r="41">
@@ -3742,16 +3742,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>39.17970808510012</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>94.24892010181975</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3827,7 +3827,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>86.20197997995184</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3839,7 +3839,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>225.8112657109832</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>161.3574866739753</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>94.79299548590363</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>113.8947931055455</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>99.32984897228583</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>301.6186538912489</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>36.8165432996411</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4064,7 +4064,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>107.5043792024161</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4073,10 +4073,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H45" t="n">
-        <v>93.13436112172583</v>
+        <v>21.69126064627581</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>90.36846221322467</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H46" t="n">
-        <v>145.5645393536923</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I46" t="n">
         <v>105.5870378728063</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1769.238905262024</v>
+        <v>937.1724264491288</v>
       </c>
       <c r="C11" t="n">
-        <v>1769.238905262024</v>
+        <v>937.1724264491288</v>
       </c>
       <c r="D11" t="n">
-        <v>1635.67674096947</v>
+        <v>937.1724264491288</v>
       </c>
       <c r="E11" t="n">
-        <v>1249.888488371226</v>
+        <v>937.1724264491288</v>
       </c>
       <c r="F11" t="n">
-        <v>838.9025835816185</v>
+        <v>526.1865216595213</v>
       </c>
       <c r="G11" t="n">
-        <v>423.1386449296419</v>
+        <v>110.4225830075448</v>
       </c>
       <c r="H11" t="n">
-        <v>118.4733379687845</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I11" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J11" t="n">
-        <v>181.1756535819841</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7854999799492</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L11" t="n">
-        <v>772.8691714549157</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M11" t="n">
         <v>1187.397991240659</v>
@@ -5059,34 +5059,34 @@
         <v>2002.031077317524</v>
       </c>
       <c r="P11" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q11" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R11" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S11" t="n">
-        <v>2364.843483837422</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="T11" t="n">
-        <v>2155.838745326145</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="U11" t="n">
-        <v>2155.838745326145</v>
+        <v>2028.300912117901</v>
       </c>
       <c r="V11" t="n">
-        <v>2155.838745326145</v>
+        <v>1697.23802477433</v>
       </c>
       <c r="W11" t="n">
-        <v>2155.838745326145</v>
+        <v>1697.23802477433</v>
       </c>
       <c r="X11" t="n">
-        <v>2155.838745326145</v>
+        <v>1323.772266513251</v>
       </c>
       <c r="Y11" t="n">
-        <v>2155.838745326145</v>
+        <v>1323.772266513251</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>859.1382992416502</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C12" t="n">
-        <v>684.6852699605232</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D12" t="n">
-        <v>535.7508602992719</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E12" t="n">
-        <v>376.5134052938164</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F12" t="n">
-        <v>229.9788473207014</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G12" t="n">
-        <v>93.24576819005705</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H12" t="n">
         <v>71.33540390088822</v>
@@ -5120,22 +5120,22 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J12" t="n">
-        <v>109.2358024440159</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K12" t="n">
-        <v>550.765992504644</v>
+        <v>560.6342506504922</v>
       </c>
       <c r="L12" t="n">
-        <v>838.7302756873065</v>
+        <v>848.5985338331548</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.127879935978</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N12" t="n">
-        <v>1573.340446166283</v>
+        <v>1583.208704312131</v>
       </c>
       <c r="O12" t="n">
-        <v>1898.02606388004</v>
+        <v>1907.894322025888</v>
       </c>
       <c r="P12" t="n">
         <v>2149.150088787597</v>
@@ -5144,7 +5144,7 @@
         <v>2468.48049822852</v>
       </c>
       <c r="R12" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S12" t="n">
         <v>2354.581362957454</v>
@@ -5153,19 +5153,19 @@
         <v>2160.447087779001</v>
       </c>
       <c r="U12" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V12" t="n">
-        <v>1697.202791960407</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W12" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X12" t="n">
-        <v>1235.113935026672</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y12" t="n">
-        <v>1027.353636261718</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="C13" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="D13" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="E13" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F13" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G13" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H13" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I13" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J13" t="n">
-        <v>73.44728005477629</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K13" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L13" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M13" t="n">
-        <v>809.9798694642498</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N13" t="n">
         <v>1104.867129907538</v>
@@ -5217,34 +5217,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P13" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q13" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R13" t="n">
-        <v>1505.443183112051</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S13" t="n">
-        <v>1308.3517434821</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T13" t="n">
-        <v>1085.259822331915</v>
+        <v>1331.821402883875</v>
       </c>
       <c r="U13" t="n">
-        <v>796.1400366611371</v>
+        <v>1042.701617213097</v>
       </c>
       <c r="V13" t="n">
-        <v>541.4555484552502</v>
+        <v>788.0171290072101</v>
       </c>
       <c r="W13" t="n">
-        <v>252.0383784182896</v>
+        <v>498.5999589702494</v>
       </c>
       <c r="X13" t="n">
-        <v>156.4714025375973</v>
+        <v>270.6104080722321</v>
       </c>
       <c r="Y13" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1184.590222112531</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="C14" t="n">
-        <v>815.6277051721197</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="D14" t="n">
-        <v>457.3620065653692</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="E14" t="n">
-        <v>71.57375396712496</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="F14" t="n">
-        <v>49.81782892870199</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G14" t="n">
         <v>49.81782892870199</v>
@@ -5278,52 +5278,52 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819841</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K14" t="n">
-        <v>428.7854999799492</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L14" t="n">
-        <v>772.8691714549157</v>
+        <v>772.8691714549145</v>
       </c>
       <c r="M14" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N14" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O14" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P14" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q14" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R14" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T14" t="n">
-        <v>2155.838745326145</v>
+        <v>2200.435381031184</v>
       </c>
       <c r="U14" t="n">
-        <v>1902.252949520224</v>
+        <v>1946.849585225263</v>
       </c>
       <c r="V14" t="n">
-        <v>1571.190062176653</v>
+        <v>1615.786697881692</v>
       </c>
       <c r="W14" t="n">
-        <v>1571.190062176653</v>
+        <v>1615.786697881692</v>
       </c>
       <c r="X14" t="n">
-        <v>1571.190062176653</v>
+        <v>1242.320939620612</v>
       </c>
       <c r="Y14" t="n">
-        <v>1571.190062176653</v>
+        <v>852.1816076448004</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6781532488152</v>
+        <v>376.5134052938169</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207019</v>
       </c>
       <c r="G15" t="n">
-        <v>165.4105161450557</v>
+        <v>93.2457681900575</v>
       </c>
       <c r="H15" t="n">
         <v>71.33540390088822</v>
@@ -5357,31 +5357,31 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J15" t="n">
-        <v>109.2358024440159</v>
+        <v>141.5150087964431</v>
       </c>
       <c r="K15" t="n">
-        <v>288.9454078621912</v>
+        <v>583.0451988570713</v>
       </c>
       <c r="L15" t="n">
-        <v>795.4770199476299</v>
+        <v>871.0094820397339</v>
       </c>
       <c r="M15" t="n">
-        <v>1411.972652940317</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.185219170622</v>
+        <v>1605.61965251871</v>
       </c>
       <c r="O15" t="n">
-        <v>2115.870836884379</v>
+        <v>1930.305270232467</v>
       </c>
       <c r="P15" t="n">
-        <v>2357.126603646087</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q15" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R15" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S15" t="n">
         <v>2354.581362957454</v>
@@ -5390,7 +5390,7 @@
         <v>2160.447087779001</v>
       </c>
       <c r="U15" t="n">
-        <v>1932.354900192149</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V15" t="n">
         <v>1697.202791960407</v>
@@ -5399,10 +5399,10 @@
         <v>1442.965435232205</v>
       </c>
       <c r="X15" t="n">
-        <v>1235.113935026672</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y15" t="n">
-        <v>1027.353636261718</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.81782892870199</v>
+        <v>496.8225125223329</v>
       </c>
       <c r="C16" t="n">
-        <v>49.81782892870199</v>
+        <v>496.8225125223329</v>
       </c>
       <c r="D16" t="n">
-        <v>49.81782892870199</v>
+        <v>346.7058731099971</v>
       </c>
       <c r="E16" t="n">
-        <v>49.81782892870199</v>
+        <v>198.792779527604</v>
       </c>
       <c r="F16" t="n">
-        <v>49.81782892870199</v>
+        <v>198.792779527604</v>
       </c>
       <c r="G16" t="n">
-        <v>49.81782892870199</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H16" t="n">
         <v>49.81782892870199</v>
@@ -5436,16 +5436,16 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J16" t="n">
-        <v>73.44728005477629</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K16" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L16" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M16" t="n">
-        <v>809.9798694642498</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N16" t="n">
         <v>1104.867129907538</v>
@@ -5454,34 +5454,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P16" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q16" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R16" t="n">
-        <v>1505.443183112051</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S16" t="n">
-        <v>1308.3517434821</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T16" t="n">
-        <v>1085.259822331915</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U16" t="n">
-        <v>796.1400366611371</v>
+        <v>899.9172217540125</v>
       </c>
       <c r="V16" t="n">
-        <v>541.4555484552502</v>
+        <v>645.2327335481257</v>
       </c>
       <c r="W16" t="n">
-        <v>252.0383784182896</v>
+        <v>645.2327335481257</v>
       </c>
       <c r="X16" t="n">
-        <v>49.81782892870199</v>
+        <v>645.2327335481257</v>
       </c>
       <c r="Y16" t="n">
-        <v>49.81782892870199</v>
+        <v>645.2327335481257</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>504.2615905670287</v>
+        <v>765.4690406791669</v>
       </c>
       <c r="C17" t="n">
-        <v>504.2615905670287</v>
+        <v>765.4690406791669</v>
       </c>
       <c r="D17" t="n">
-        <v>504.2615905670287</v>
+        <v>765.4690406791669</v>
       </c>
       <c r="E17" t="n">
-        <v>118.4733379687844</v>
+        <v>765.4690406791669</v>
       </c>
       <c r="F17" t="n">
-        <v>118.4733379687844</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="G17" t="n">
-        <v>118.4733379687844</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H17" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I17" t="n">
         <v>49.81782892870198</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819831</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7854999799484</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L17" t="n">
-        <v>772.8691714549147</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M17" t="n">
         <v>1187.397991240658</v>
@@ -5530,10 +5530,10 @@
         <v>1613.248129085907</v>
       </c>
       <c r="O17" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P17" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q17" t="n">
         <v>2474.446703561746</v>
@@ -5545,22 +5545,22 @@
         <v>2364.843483837422</v>
       </c>
       <c r="T17" t="n">
-        <v>2155.838745326145</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="U17" t="n">
-        <v>1902.252949520223</v>
+        <v>2111.2576880315</v>
       </c>
       <c r="V17" t="n">
-        <v>1571.190062176653</v>
+        <v>1780.19480068793</v>
       </c>
       <c r="W17" t="n">
-        <v>1218.421406906539</v>
+        <v>1427.426145417816</v>
       </c>
       <c r="X17" t="n">
-        <v>844.9556486454587</v>
+        <v>1155.608372654979</v>
       </c>
       <c r="Y17" t="n">
-        <v>504.2615905670287</v>
+        <v>765.4690406791669</v>
       </c>
     </row>
     <row r="18">
@@ -5576,16 +5576,16 @@
         <v>684.6852699605228</v>
       </c>
       <c r="D18" t="n">
-        <v>535.7508602992715</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E18" t="n">
-        <v>376.513405293816</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F18" t="n">
-        <v>229.978847320701</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G18" t="n">
-        <v>93.24576819005659</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H18" t="n">
         <v>71.3354039008882</v>
@@ -5597,25 +5597,25 @@
         <v>234.0659274310207</v>
       </c>
       <c r="K18" t="n">
-        <v>583.0451988570704</v>
+        <v>560.6342506504916</v>
       </c>
       <c r="L18" t="n">
-        <v>871.009482039733</v>
+        <v>848.5985338331541</v>
       </c>
       <c r="M18" t="n">
-        <v>1226.407086288405</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N18" t="n">
-        <v>1605.619652518709</v>
+        <v>1583.20870431213</v>
       </c>
       <c r="O18" t="n">
-        <v>1930.305270232466</v>
+        <v>1907.894322025887</v>
       </c>
       <c r="P18" t="n">
-        <v>2171.561036994176</v>
+        <v>2149.150088787596</v>
       </c>
       <c r="Q18" t="n">
-        <v>2490.891446435099</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R18" t="n">
         <v>2490.891446435099</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>831.6867069089295</v>
+        <v>660.3783239816545</v>
       </c>
       <c r="C19" t="n">
-        <v>662.7505239810226</v>
+        <v>514.7188876696785</v>
       </c>
       <c r="D19" t="n">
-        <v>512.6338845686869</v>
+        <v>514.7188876696785</v>
       </c>
       <c r="E19" t="n">
-        <v>364.7207909862938</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="F19" t="n">
-        <v>217.8308434883834</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="G19" t="n">
-        <v>49.81782892870198</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H19" t="n">
         <v>49.81782892870198</v>
@@ -5673,16 +5673,16 @@
         <v>49.81782892870198</v>
       </c>
       <c r="J19" t="n">
-        <v>73.44728005477631</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K19" t="n">
         <v>242.1145636490678</v>
       </c>
       <c r="L19" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M19" t="n">
-        <v>809.9798694642501</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N19" t="n">
         <v>1104.867129907538</v>
@@ -5694,31 +5694,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q19" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R19" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S19" t="n">
-        <v>1412.128928574975</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T19" t="n">
-        <v>1189.037007424791</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U19" t="n">
-        <v>1189.037007424791</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="V19" t="n">
-        <v>1189.037007424791</v>
+        <v>1131.443958848855</v>
       </c>
       <c r="W19" t="n">
-        <v>1189.037007424791</v>
+        <v>842.0267888118942</v>
       </c>
       <c r="X19" t="n">
-        <v>1189.037007424791</v>
+        <v>842.0267888118942</v>
       </c>
       <c r="Y19" t="n">
-        <v>1013.335171739169</v>
+        <v>842.0267888118942</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>838.9025835816184</v>
+        <v>1588.104311797488</v>
       </c>
       <c r="C20" t="n">
-        <v>838.9025835816184</v>
+        <v>1219.141794857077</v>
       </c>
       <c r="D20" t="n">
-        <v>838.9025835816184</v>
+        <v>1219.141794857077</v>
       </c>
       <c r="E20" t="n">
-        <v>838.9025835816184</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F20" t="n">
-        <v>838.9025835816184</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G20" t="n">
-        <v>423.1386449296419</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H20" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I20" t="n">
         <v>49.81782892870198</v>
@@ -5758,16 +5758,16 @@
         <v>428.7854999799487</v>
       </c>
       <c r="L20" t="n">
-        <v>772.8691714549145</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M20" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N20" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O20" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P20" t="n">
         <v>2299.347327962849</v>
@@ -5782,22 +5782,22 @@
         <v>2364.843483837422</v>
       </c>
       <c r="T20" t="n">
-        <v>2155.838745326145</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="U20" t="n">
-        <v>1902.252949520223</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="V20" t="n">
-        <v>1571.190062176653</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="W20" t="n">
-        <v>1571.190062176653</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="X20" t="n">
-        <v>1229.04191555743</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="Y20" t="n">
-        <v>838.9025835816184</v>
+        <v>1974.70415186161</v>
       </c>
     </row>
     <row r="21">
@@ -5813,46 +5813,46 @@
         <v>684.6852699605228</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992715</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6781532488151</v>
+        <v>376.513405293816</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1435952757001</v>
+        <v>229.978847320701</v>
       </c>
       <c r="G21" t="n">
-        <v>165.4105161450557</v>
+        <v>93.24576819005659</v>
       </c>
       <c r="H21" t="n">
-        <v>71.3354039008882</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I21" t="n">
         <v>49.81782892870198</v>
       </c>
       <c r="J21" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K21" t="n">
-        <v>550.7659925046443</v>
+        <v>583.0451988570708</v>
       </c>
       <c r="L21" t="n">
-        <v>838.7302756873069</v>
+        <v>871.0094820397333</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.127879935978</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N21" t="n">
-        <v>1573.340446166283</v>
+        <v>1605.619652518709</v>
       </c>
       <c r="O21" t="n">
-        <v>1898.02606388004</v>
+        <v>1930.305270232466</v>
       </c>
       <c r="P21" t="n">
-        <v>2149.150088787596</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q21" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R21" t="n">
         <v>2490.891446435099</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.2624087764842</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="C22" t="n">
-        <v>768.2624087764842</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="D22" t="n">
-        <v>768.2624087764842</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="E22" t="n">
-        <v>620.3493151940911</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="F22" t="n">
-        <v>473.4593676961807</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G22" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H22" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I22" t="n">
         <v>49.81782892870198</v>
       </c>
       <c r="J22" t="n">
-        <v>73.44728005477631</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K22" t="n">
         <v>242.1145636490678</v>
       </c>
       <c r="L22" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M22" t="n">
-        <v>809.9798694642501</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N22" t="n">
         <v>1104.867129907538</v>
@@ -5931,31 +5931,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q22" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R22" t="n">
         <v>1505.443183112052</v>
       </c>
       <c r="S22" t="n">
-        <v>1308.351743482101</v>
+        <v>1308.3517434821</v>
       </c>
       <c r="T22" t="n">
-        <v>1085.259822331916</v>
+        <v>1308.3517434821</v>
       </c>
       <c r="U22" t="n">
-        <v>949.910873606724</v>
+        <v>1019.231957811322</v>
       </c>
       <c r="V22" t="n">
-        <v>949.910873606724</v>
+        <v>874.9305401667846</v>
       </c>
       <c r="W22" t="n">
-        <v>949.910873606724</v>
+        <v>585.5133701298239</v>
       </c>
       <c r="X22" t="n">
-        <v>949.910873606724</v>
+        <v>585.5133701298239</v>
       </c>
       <c r="Y22" t="n">
-        <v>949.910873606724</v>
+        <v>364.7207909862938</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1825.160449014127</v>
+        <v>1414.32401404735</v>
       </c>
       <c r="C23" t="n">
-        <v>1825.160449014127</v>
+        <v>1045.361497106938</v>
       </c>
       <c r="D23" t="n">
-        <v>1637.149490927736</v>
+        <v>1045.361497106938</v>
       </c>
       <c r="E23" t="n">
-        <v>1251.361238329491</v>
+        <v>659.5732445086937</v>
       </c>
       <c r="F23" t="n">
-        <v>840.3753335398837</v>
+        <v>248.5873397190862</v>
       </c>
       <c r="G23" t="n">
-        <v>424.6113948879072</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H23" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I23" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J23" t="n">
-        <v>189.7538958209947</v>
+        <v>182.6484035402486</v>
       </c>
       <c r="K23" t="n">
-        <v>437.36374221896</v>
+        <v>430.2582499382138</v>
       </c>
       <c r="L23" t="n">
-        <v>781.4474136939264</v>
+        <v>774.34192141318</v>
       </c>
       <c r="M23" t="n">
-        <v>1195.97623347967</v>
+        <v>1188.870741198923</v>
       </c>
       <c r="N23" t="n">
-        <v>1621.826371324918</v>
+        <v>1614.720879044172</v>
       </c>
       <c r="O23" t="n">
-        <v>2010.609319556535</v>
+        <v>2003.503827275789</v>
       </c>
       <c r="P23" t="n">
-        <v>2307.92557020186</v>
+        <v>2300.820077921114</v>
       </c>
       <c r="Q23" t="n">
-        <v>2483.024945800757</v>
+        <v>2548.08420147501</v>
       </c>
       <c r="R23" t="n">
         <v>2564.528944348363</v>
@@ -6028,13 +6028,13 @@
         <v>2564.528944348363</v>
       </c>
       <c r="W23" t="n">
-        <v>2211.760289078249</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="X23" t="n">
-        <v>2211.760289078249</v>
+        <v>2191.063186087283</v>
       </c>
       <c r="Y23" t="n">
-        <v>2211.760289078249</v>
+        <v>1800.923854111471</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549145</v>
       </c>
       <c r="C24" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737875</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125361</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070805</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339656</v>
       </c>
       <c r="G24" t="n">
         <v>166.8832661033211</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I24" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J24" t="n">
-        <v>110.7085524022813</v>
+        <v>110.7085524022812</v>
       </c>
       <c r="K24" t="n">
-        <v>549.3810706752876</v>
+        <v>549.3810706752879</v>
       </c>
       <c r="L24" t="n">
-        <v>837.3453538579502</v>
+        <v>837.3453538579504</v>
       </c>
       <c r="M24" t="n">
         <v>1192.742958106622</v>
@@ -6104,7 +6104,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V24" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W24" t="n">
         <v>1516.602933145469</v>
@@ -6113,7 +6113,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y24" t="n">
-        <v>1100.991134174982</v>
+        <v>1100.991134174983</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>793.9849399946886</v>
+        <v>388.2397763745556</v>
       </c>
       <c r="C25" t="n">
-        <v>625.0487570667817</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="D25" t="n">
-        <v>474.932117654446</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="E25" t="n">
-        <v>474.932117654446</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="F25" t="n">
-        <v>474.932117654446</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="G25" t="n">
-        <v>306.9191030947646</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H25" t="n">
-        <v>157.9441524958626</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I25" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J25" t="n">
-        <v>74.9200300130416</v>
+        <v>74.92003001304158</v>
       </c>
       <c r="K25" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L25" t="n">
-        <v>514.9498010977009</v>
+        <v>514.9498010977007</v>
       </c>
       <c r="M25" t="n">
-        <v>811.4526194225153</v>
+        <v>811.4526194225152</v>
       </c>
       <c r="N25" t="n">
-        <v>1106.339879865804</v>
+        <v>1106.339879865803</v>
       </c>
       <c r="O25" t="n">
-        <v>1362.699698256868</v>
+        <v>1362.699698256867</v>
       </c>
       <c r="P25" t="n">
         <v>1558.539128188696</v>
       </c>
       <c r="Q25" t="n">
-        <v>1610.693118163192</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="R25" t="n">
         <v>1506.915933070317</v>
       </c>
       <c r="S25" t="n">
-        <v>1309.824493440366</v>
+        <v>1309.824493440365</v>
       </c>
       <c r="T25" t="n">
-        <v>1309.824493440366</v>
+        <v>1308.087541283303</v>
       </c>
       <c r="U25" t="n">
-        <v>1309.824493440366</v>
+        <v>1308.087541283303</v>
       </c>
       <c r="V25" t="n">
-        <v>1055.140005234479</v>
+        <v>1308.087541283303</v>
       </c>
       <c r="W25" t="n">
-        <v>1055.140005234479</v>
+        <v>1018.670371246343</v>
       </c>
       <c r="X25" t="n">
-        <v>827.1504543364615</v>
+        <v>790.6808203483255</v>
       </c>
       <c r="Y25" t="n">
-        <v>793.9849399946886</v>
+        <v>569.8882412047953</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1206.33043488157</v>
+        <v>1674.875891513795</v>
       </c>
       <c r="C26" t="n">
-        <v>1206.33043488157</v>
+        <v>1674.875891513795</v>
       </c>
       <c r="D26" t="n">
-        <v>848.0647362748191</v>
+        <v>1637.149490927736</v>
       </c>
       <c r="E26" t="n">
-        <v>462.2764836765748</v>
+        <v>1251.361238329491</v>
       </c>
       <c r="F26" t="n">
-        <v>51.29057888696726</v>
+        <v>840.3753335398837</v>
       </c>
       <c r="G26" t="n">
-        <v>51.29057888696726</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="H26" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I26" t="n">
         <v>51.29057888696726</v>
@@ -6229,10 +6229,10 @@
         <v>182.6484035402486</v>
       </c>
       <c r="K26" t="n">
-        <v>502.4229978932127</v>
+        <v>502.422997893213</v>
       </c>
       <c r="L26" t="n">
-        <v>846.506669368179</v>
+        <v>846.5066693681792</v>
       </c>
       <c r="M26" t="n">
         <v>1261.035489153923</v>
@@ -6253,25 +6253,25 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S26" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T26" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="U26" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="V26" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="W26" t="n">
-        <v>2211.760289078249</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="X26" t="n">
-        <v>1983.069606921503</v>
+        <v>2065.015223489606</v>
       </c>
       <c r="Y26" t="n">
-        <v>1592.930274945691</v>
+        <v>1674.875891513795</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549145</v>
       </c>
       <c r="C27" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737875</v>
       </c>
       <c r="D27" t="n">
-        <v>609.3883582125358</v>
+        <v>609.3883582125361</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070803</v>
+        <v>450.1509032070805</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6163452339653</v>
+        <v>303.6163452339656</v>
       </c>
       <c r="G27" t="n">
-        <v>166.8832661033209</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H27" t="n">
-        <v>72.80815385915338</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I27" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J27" t="n">
-        <v>110.7085524022813</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K27" t="n">
-        <v>290.4181578204567</v>
+        <v>656.682696770335</v>
       </c>
       <c r="L27" t="n">
-        <v>925.1390715466765</v>
+        <v>944.6469799529975</v>
       </c>
       <c r="M27" t="n">
-        <v>1280.536675795348</v>
+        <v>1300.044584201669</v>
       </c>
       <c r="N27" t="n">
         <v>1679.257150431974</v>
@@ -6341,7 +6341,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V27" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W27" t="n">
         <v>1516.602933145469</v>
@@ -6350,7 +6350,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y27" t="n">
-        <v>1100.991134174982</v>
+        <v>1100.991134174983</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1111.779978681034</v>
+        <v>537.2147269734576</v>
       </c>
       <c r="C28" t="n">
-        <v>1111.779978681034</v>
+        <v>368.2785440455507</v>
       </c>
       <c r="D28" t="n">
-        <v>1111.779978681034</v>
+        <v>368.2785440455507</v>
       </c>
       <c r="E28" t="n">
-        <v>1111.779978681034</v>
+        <v>368.2785440455507</v>
       </c>
       <c r="F28" t="n">
-        <v>1111.779978681034</v>
+        <v>368.2785440455507</v>
       </c>
       <c r="G28" t="n">
-        <v>1111.779978681034</v>
+        <v>200.2655294858693</v>
       </c>
       <c r="H28" t="n">
-        <v>1111.779978681034</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I28" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J28" t="n">
-        <v>1028.755856198213</v>
+        <v>74.92003001304158</v>
       </c>
       <c r="K28" t="n">
-        <v>1197.423139792504</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L28" t="n">
-        <v>1468.785627282872</v>
+        <v>514.9498010977007</v>
       </c>
       <c r="M28" t="n">
-        <v>1765.288445607687</v>
+        <v>811.4526194225152</v>
       </c>
       <c r="N28" t="n">
-        <v>2060.175706050975</v>
+        <v>1106.339879865803</v>
       </c>
       <c r="O28" t="n">
-        <v>2316.535524442039</v>
+        <v>1362.699698256867</v>
       </c>
       <c r="P28" t="n">
-        <v>2512.374954373867</v>
+        <v>1558.539128188696</v>
       </c>
       <c r="Q28" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="R28" t="n">
-        <v>2460.751759255488</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="S28" t="n">
-        <v>2263.660319625537</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="T28" t="n">
-        <v>2040.568398475352</v>
+        <v>1387.601197013007</v>
       </c>
       <c r="U28" t="n">
-        <v>1751.448612804574</v>
+        <v>1302.108964359835</v>
       </c>
       <c r="V28" t="n">
-        <v>1496.764124598687</v>
+        <v>1047.424476153948</v>
       </c>
       <c r="W28" t="n">
-        <v>1207.346954561727</v>
+        <v>758.0073061169877</v>
       </c>
       <c r="X28" t="n">
-        <v>1111.779978681034</v>
+        <v>758.0073061169877</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.779978681034</v>
+        <v>537.2147269734576</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1117.092311497787</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="C29" t="n">
-        <v>1117.092311497787</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="D29" t="n">
-        <v>1117.092311497787</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="E29" t="n">
-        <v>731.3040588995423</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="F29" t="n">
-        <v>320.3181541099347</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="G29" t="n">
         <v>51.29057888696726</v>
@@ -6463,28 +6463,28 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J29" t="n">
-        <v>182.6484035402486</v>
+        <v>189.7538958209951</v>
       </c>
       <c r="K29" t="n">
-        <v>430.2582499382139</v>
+        <v>437.3637422189603</v>
       </c>
       <c r="L29" t="n">
-        <v>774.3419214131802</v>
+        <v>781.4474136939266</v>
       </c>
       <c r="M29" t="n">
-        <v>1261.035489153923</v>
+        <v>1195.97623347967</v>
       </c>
       <c r="N29" t="n">
-        <v>1686.885626999171</v>
+        <v>1621.826371324918</v>
       </c>
       <c r="O29" t="n">
-        <v>2075.668575230788</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P29" t="n">
-        <v>2372.984825876113</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q29" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
@@ -6493,22 +6493,22 @@
         <v>2564.528944348363</v>
       </c>
       <c r="T29" t="n">
-        <v>2564.528944348363</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="U29" t="n">
-        <v>2564.528944348363</v>
+        <v>2101.938410031164</v>
       </c>
       <c r="V29" t="n">
-        <v>2233.466057004792</v>
+        <v>1770.875522687594</v>
       </c>
       <c r="W29" t="n">
-        <v>1880.697401734678</v>
+        <v>1418.10686741748</v>
       </c>
       <c r="X29" t="n">
-        <v>1507.231643473598</v>
+        <v>1044.6411091564</v>
       </c>
       <c r="Y29" t="n">
-        <v>1117.092311497787</v>
+        <v>654.5017771805881</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>932.7757971549141</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C30" t="n">
-        <v>758.3227678737871</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125356</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070804</v>
+        <v>450.1509032070801</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339651</v>
       </c>
       <c r="G30" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915366</v>
       </c>
       <c r="I30" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J30" t="n">
-        <v>215.1525067097065</v>
+        <v>110.7085524022812</v>
       </c>
       <c r="K30" t="n">
-        <v>656.6826967703347</v>
+        <v>552.2387424629094</v>
       </c>
       <c r="L30" t="n">
-        <v>944.6469799529973</v>
+        <v>840.2030256455719</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.044584201669</v>
+        <v>1195.600629894243</v>
       </c>
       <c r="N30" t="n">
-        <v>1679.257150431974</v>
+        <v>1574.813196124548</v>
       </c>
       <c r="O30" t="n">
-        <v>2003.942768145731</v>
+        <v>1899.498813838305</v>
       </c>
       <c r="P30" t="n">
-        <v>2245.19853490744</v>
+        <v>2453.17504976593</v>
       </c>
       <c r="Q30" t="n">
         <v>2564.528944348363</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>516.1916376279438</v>
+        <v>783.1710836614529</v>
       </c>
       <c r="C31" t="n">
-        <v>516.1916376279438</v>
+        <v>614.2349007335461</v>
       </c>
       <c r="D31" t="n">
-        <v>516.1916376279438</v>
+        <v>464.1182613212103</v>
       </c>
       <c r="E31" t="n">
-        <v>368.2785440455507</v>
+        <v>464.1182613212103</v>
       </c>
       <c r="F31" t="n">
-        <v>368.2785440455507</v>
+        <v>464.1182613212103</v>
       </c>
       <c r="G31" t="n">
-        <v>200.2655294858693</v>
+        <v>306.9191030947646</v>
       </c>
       <c r="H31" t="n">
-        <v>51.29057888696726</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="I31" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J31" t="n">
-        <v>74.9200300130416</v>
+        <v>74.92003001304158</v>
       </c>
       <c r="K31" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L31" t="n">
-        <v>514.9498010977009</v>
+        <v>514.9498010977007</v>
       </c>
       <c r="M31" t="n">
-        <v>811.4526194225153</v>
+        <v>811.4526194225152</v>
       </c>
       <c r="N31" t="n">
-        <v>1106.339879865804</v>
+        <v>1106.339879865803</v>
       </c>
       <c r="O31" t="n">
-        <v>1362.699698256868</v>
+        <v>1362.699698256867</v>
       </c>
       <c r="P31" t="n">
         <v>1558.539128188696</v>
       </c>
       <c r="Q31" t="n">
-        <v>1610.693118163192</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="R31" t="n">
-        <v>1610.693118163192</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="S31" t="n">
-        <v>1610.693118163192</v>
+        <v>1413.60167853324</v>
       </c>
       <c r="T31" t="n">
-        <v>1610.693118163192</v>
+        <v>1413.60167853324</v>
       </c>
       <c r="U31" t="n">
-        <v>1321.573332492414</v>
+        <v>1413.60167853324</v>
       </c>
       <c r="V31" t="n">
-        <v>1066.888844286527</v>
+        <v>1413.60167853324</v>
       </c>
       <c r="W31" t="n">
-        <v>777.4716742495659</v>
+        <v>1413.60167853324</v>
       </c>
       <c r="X31" t="n">
-        <v>549.4821233515486</v>
+        <v>1185.612127635223</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.1916376279438</v>
+        <v>964.8195484916927</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1189.504699223737</v>
+        <v>1622.094373533546</v>
       </c>
       <c r="C32" t="n">
-        <v>820.5421822833252</v>
+        <v>1622.094373533546</v>
       </c>
       <c r="D32" t="n">
-        <v>462.2764836765748</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="E32" t="n">
-        <v>462.2764836765748</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="F32" t="n">
-        <v>51.29057888696726</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="G32" t="n">
         <v>51.29057888696726</v>
@@ -6703,13 +6703,13 @@
         <v>182.6484035402486</v>
       </c>
       <c r="K32" t="n">
-        <v>430.2582499382139</v>
+        <v>430.2582499382138</v>
       </c>
       <c r="L32" t="n">
-        <v>774.3419214131802</v>
+        <v>774.34192141318</v>
       </c>
       <c r="M32" t="n">
-        <v>1188.870741198924</v>
+        <v>1188.870741198923</v>
       </c>
       <c r="N32" t="n">
         <v>1614.720879044172</v>
@@ -6718,7 +6718,7 @@
         <v>2003.503827275789</v>
       </c>
       <c r="P32" t="n">
-        <v>2300.820077921114</v>
+        <v>2372.984825876113</v>
       </c>
       <c r="Q32" t="n">
         <v>2548.08420147501</v>
@@ -6727,25 +6727,25 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S32" t="n">
-        <v>2564.528944348363</v>
+        <v>2548.761839452516</v>
       </c>
       <c r="T32" t="n">
-        <v>2564.528944348363</v>
+        <v>2339.757100941239</v>
       </c>
       <c r="U32" t="n">
-        <v>2564.528944348363</v>
+        <v>2339.757100941239</v>
       </c>
       <c r="V32" t="n">
-        <v>2233.466057004792</v>
+        <v>2008.694213597668</v>
       </c>
       <c r="W32" t="n">
-        <v>1880.697401734678</v>
+        <v>2008.694213597668</v>
       </c>
       <c r="X32" t="n">
-        <v>1880.697401734678</v>
+        <v>2008.694213597668</v>
       </c>
       <c r="Y32" t="n">
-        <v>1576.104539287859</v>
+        <v>2008.694213597668</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549141</v>
       </c>
       <c r="C33" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737871</v>
       </c>
       <c r="D33" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E33" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070804</v>
       </c>
       <c r="F33" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G33" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H33" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I33" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J33" t="n">
-        <v>110.7085524022813</v>
+        <v>192.7415585031277</v>
       </c>
       <c r="K33" t="n">
-        <v>290.4181578204567</v>
+        <v>634.2717485637559</v>
       </c>
       <c r="L33" t="n">
-        <v>578.3824410031193</v>
+        <v>922.2360317464183</v>
       </c>
       <c r="M33" t="n">
-        <v>1213.103354729339</v>
+        <v>1277.63363599509</v>
       </c>
       <c r="N33" t="n">
-        <v>1847.824268455559</v>
+        <v>1656.846202225395</v>
       </c>
       <c r="O33" t="n">
-        <v>2172.509886169316</v>
+        <v>1981.531819939152</v>
       </c>
       <c r="P33" t="n">
-        <v>2453.17504976593</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q33" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R33" t="n">
         <v>2564.528944348363</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1389.996691233729</v>
+        <v>710.1350602858057</v>
       </c>
       <c r="C34" t="n">
-        <v>1221.060508305822</v>
+        <v>710.1350602858057</v>
       </c>
       <c r="D34" t="n">
-        <v>1070.943868893486</v>
+        <v>710.1350602858057</v>
       </c>
       <c r="E34" t="n">
-        <v>1005.126405072138</v>
+        <v>562.2219667034126</v>
       </c>
       <c r="F34" t="n">
-        <v>1005.126405072138</v>
+        <v>415.3320192055022</v>
       </c>
       <c r="G34" t="n">
-        <v>1005.126405072138</v>
+        <v>247.3190046458208</v>
       </c>
       <c r="H34" t="n">
-        <v>1005.126405072138</v>
+        <v>98.34405404691879</v>
       </c>
       <c r="I34" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J34" t="n">
-        <v>1028.755856198213</v>
+        <v>74.92003001304158</v>
       </c>
       <c r="K34" t="n">
-        <v>1197.423139792504</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L34" t="n">
-        <v>1468.785627282872</v>
+        <v>514.9498010977007</v>
       </c>
       <c r="M34" t="n">
-        <v>1765.288445607687</v>
+        <v>811.4526194225152</v>
       </c>
       <c r="N34" t="n">
-        <v>2060.175706050975</v>
+        <v>1106.339879865803</v>
       </c>
       <c r="O34" t="n">
-        <v>2316.535524442039</v>
+        <v>1362.699698256867</v>
       </c>
       <c r="P34" t="n">
-        <v>2512.374954373867</v>
+        <v>1558.539128188696</v>
       </c>
       <c r="Q34" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="R34" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="S34" t="n">
-        <v>2564.528944348363</v>
+        <v>1413.60167853324</v>
       </c>
       <c r="T34" t="n">
-        <v>2564.528944348363</v>
+        <v>1413.60167853324</v>
       </c>
       <c r="U34" t="n">
-        <v>2564.528944348363</v>
+        <v>1413.60167853324</v>
       </c>
       <c r="V34" t="n">
-        <v>2309.844456142476</v>
+        <v>1158.917190327353</v>
       </c>
       <c r="W34" t="n">
-        <v>2020.427286105516</v>
+        <v>1158.917190327353</v>
       </c>
       <c r="X34" t="n">
-        <v>1792.437735207498</v>
+        <v>930.9276394293358</v>
       </c>
       <c r="Y34" t="n">
-        <v>1571.645156063968</v>
+        <v>710.1350602858057</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>447.8502350091234</v>
+        <v>1573.820201863716</v>
       </c>
       <c r="C35" t="n">
-        <v>78.88771806871171</v>
+        <v>1204.857684923304</v>
       </c>
       <c r="D35" t="n">
-        <v>49.81782892870198</v>
+        <v>846.5919863165539</v>
       </c>
       <c r="E35" t="n">
-        <v>49.81782892870198</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="F35" t="n">
         <v>49.81782892870198</v>
@@ -6940,16 +6940,16 @@
         <v>181.1756535819833</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799486</v>
       </c>
       <c r="L35" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M35" t="n">
         <v>1187.397991240658</v>
       </c>
       <c r="N35" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O35" t="n">
         <v>2002.031077317523</v>
@@ -6964,25 +6964,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S35" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T35" t="n">
-        <v>2281.886707923822</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="U35" t="n">
-        <v>2281.886707923822</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="V35" t="n">
-        <v>1950.823820580251</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="W35" t="n">
-        <v>1598.055165310137</v>
+        <v>2012.074828567308</v>
       </c>
       <c r="X35" t="n">
-        <v>1224.589407049057</v>
+        <v>1963.959533839528</v>
       </c>
       <c r="Y35" t="n">
-        <v>834.4500750732452</v>
+        <v>1573.820201863716</v>
       </c>
     </row>
     <row r="36">
@@ -7004,13 +7004,13 @@
         <v>376.513405293816</v>
       </c>
       <c r="F36" t="n">
-        <v>229.978847320701</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G36" t="n">
-        <v>93.24576819005659</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H36" t="n">
-        <v>49.81782892870198</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I36" t="n">
         <v>49.81782892870198</v>
@@ -7019,22 +7019,22 @@
         <v>234.0659274310207</v>
       </c>
       <c r="K36" t="n">
-        <v>675.596117491649</v>
+        <v>413.7755328491961</v>
       </c>
       <c r="L36" t="n">
-        <v>963.5604006743116</v>
+        <v>701.7398160318586</v>
       </c>
       <c r="M36" t="n">
-        <v>1318.958004922983</v>
+        <v>1057.13742028053</v>
       </c>
       <c r="N36" t="n">
-        <v>1698.170571153288</v>
+        <v>1436.349986510835</v>
       </c>
       <c r="O36" t="n">
-        <v>2022.856188867045</v>
+        <v>1761.035604224592</v>
       </c>
       <c r="P36" t="n">
-        <v>2264.111955628754</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q36" t="n">
         <v>2490.891446435099</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>327.2167942497534</v>
+        <v>663.6736923492481</v>
       </c>
       <c r="C37" t="n">
-        <v>327.2167942497534</v>
+        <v>494.7375094213412</v>
       </c>
       <c r="D37" t="n">
-        <v>327.2167942497534</v>
+        <v>344.6208700090054</v>
       </c>
       <c r="E37" t="n">
-        <v>327.2167942497534</v>
+        <v>196.7077764266123</v>
       </c>
       <c r="F37" t="n">
-        <v>327.2167942497534</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G37" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H37" t="n">
         <v>49.81782892870198</v>
@@ -7095,16 +7095,16 @@
         <v>49.81782892870198</v>
       </c>
       <c r="J37" t="n">
-        <v>73.44728005477631</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K37" t="n">
         <v>242.1145636490678</v>
       </c>
       <c r="L37" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M37" t="n">
-        <v>809.9798694642501</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N37" t="n">
         <v>1104.867129907538</v>
@@ -7116,31 +7116,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q37" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R37" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S37" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T37" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="U37" t="n">
-        <v>1320.100582534149</v>
+        <v>1320.100582534148</v>
       </c>
       <c r="V37" t="n">
-        <v>1065.416094328262</v>
+        <v>1181.080413284226</v>
       </c>
       <c r="W37" t="n">
-        <v>775.9989242913009</v>
+        <v>891.6632432472654</v>
       </c>
       <c r="X37" t="n">
-        <v>548.0093733932836</v>
+        <v>663.6736923492481</v>
       </c>
       <c r="Y37" t="n">
-        <v>327.2167942497534</v>
+        <v>663.6736923492481</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2362.904956516632</v>
+        <v>1218.421406906539</v>
       </c>
       <c r="C38" t="n">
-        <v>1993.942439576221</v>
+        <v>849.4588899661269</v>
       </c>
       <c r="D38" t="n">
-        <v>1635.67674096947</v>
+        <v>849.4588899661269</v>
       </c>
       <c r="E38" t="n">
-        <v>1249.888488371226</v>
+        <v>849.4588899661269</v>
       </c>
       <c r="F38" t="n">
-        <v>838.9025835816184</v>
+        <v>438.4729851765193</v>
       </c>
       <c r="G38" t="n">
-        <v>423.1386449296419</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H38" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I38" t="n">
         <v>49.81782892870198</v>
       </c>
       <c r="J38" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L38" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M38" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N38" t="n">
         <v>1613.248129085907</v>
@@ -7201,25 +7201,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S38" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T38" t="n">
-        <v>2490.891446435099</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="U38" t="n">
-        <v>2362.904956516632</v>
+        <v>1902.252949520223</v>
       </c>
       <c r="V38" t="n">
-        <v>2362.904956516632</v>
+        <v>1571.190062176653</v>
       </c>
       <c r="W38" t="n">
-        <v>2362.904956516632</v>
+        <v>1218.421406906539</v>
       </c>
       <c r="X38" t="n">
-        <v>2362.904956516632</v>
+        <v>1218.421406906539</v>
       </c>
       <c r="Y38" t="n">
-        <v>2362.904956516632</v>
+        <v>1218.421406906539</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3030471966489</v>
+        <v>909.7854722244628</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8500179155219</v>
+        <v>735.3324429433358</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9156082542706</v>
+        <v>586.3980332820845</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6781532488151</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1435952757001</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G39" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H39" t="n">
-        <v>71.3354039008882</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I39" t="n">
         <v>49.81782892870198</v>
       </c>
       <c r="J39" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K39" t="n">
-        <v>288.9454078621914</v>
+        <v>560.6342506504916</v>
       </c>
       <c r="L39" t="n">
-        <v>576.9096910448541</v>
+        <v>848.5985338331541</v>
       </c>
       <c r="M39" t="n">
-        <v>1193.405324037541</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.185219170621</v>
+        <v>1583.20870431213</v>
       </c>
       <c r="O39" t="n">
-        <v>2115.870836884378</v>
+        <v>1907.894322025887</v>
       </c>
       <c r="P39" t="n">
-        <v>2357.126603646087</v>
+        <v>2149.150088787596</v>
       </c>
       <c r="Q39" t="n">
         <v>2468.48049822852</v>
@@ -7292,13 +7292,13 @@
         <v>1697.202791960406</v>
       </c>
       <c r="W39" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X39" t="n">
-        <v>1307.278682981671</v>
+        <v>1285.761108009485</v>
       </c>
       <c r="Y39" t="n">
-        <v>1099.518384216717</v>
+        <v>1078.000809244531</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9062274043131</v>
+        <v>512.6338845686869</v>
       </c>
       <c r="C40" t="n">
-        <v>757.9700444764062</v>
+        <v>512.6338845686869</v>
       </c>
       <c r="D40" t="n">
-        <v>607.8534050640704</v>
+        <v>512.6338845686869</v>
       </c>
       <c r="E40" t="n">
-        <v>513.6957415851957</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="F40" t="n">
-        <v>366.8057940872854</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G40" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H40" t="n">
         <v>49.81782892870198</v>
@@ -7332,16 +7332,16 @@
         <v>49.81782892870198</v>
       </c>
       <c r="J40" t="n">
-        <v>73.44728005477631</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K40" t="n">
         <v>242.1145636490678</v>
       </c>
       <c r="L40" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M40" t="n">
-        <v>809.9798694642501</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N40" t="n">
         <v>1104.867129907538</v>
@@ -7353,31 +7353,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q40" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R40" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S40" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T40" t="n">
-        <v>1505.443183112052</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U40" t="n">
-        <v>1216.323397441274</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="V40" t="n">
-        <v>1216.323397441274</v>
+        <v>1131.443958848855</v>
       </c>
       <c r="W40" t="n">
-        <v>926.9062274043131</v>
+        <v>842.0267888118942</v>
       </c>
       <c r="X40" t="n">
-        <v>926.9062274043131</v>
+        <v>842.0267888118942</v>
       </c>
       <c r="Y40" t="n">
-        <v>926.9062274043131</v>
+        <v>694.2823493989266</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>530.8070109227237</v>
+        <v>458.355808581336</v>
       </c>
       <c r="C41" t="n">
-        <v>530.8070109227237</v>
+        <v>89.3932916409243</v>
       </c>
       <c r="D41" t="n">
-        <v>530.8070109227237</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="E41" t="n">
-        <v>145.0187583244795</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="F41" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="G41" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="H41" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I41" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J41" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819832</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799484</v>
       </c>
       <c r="L41" t="n">
-        <v>772.8691714549145</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M41" t="n">
         <v>1187.397991240658</v>
@@ -7426,37 +7426,37 @@
         <v>1613.248129085906</v>
       </c>
       <c r="O41" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317522</v>
       </c>
       <c r="P41" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.347327962847</v>
       </c>
       <c r="Q41" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561745</v>
       </c>
       <c r="R41" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S41" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="T41" t="n">
-        <v>2364.843483837422</v>
+        <v>2155.838745326144</v>
       </c>
       <c r="U41" t="n">
-        <v>2364.843483837422</v>
+        <v>1902.252949520223</v>
       </c>
       <c r="V41" t="n">
-        <v>2033.780596493851</v>
+        <v>1571.190062176652</v>
       </c>
       <c r="W41" t="n">
-        <v>1681.011941223737</v>
+        <v>1218.421406906538</v>
       </c>
       <c r="X41" t="n">
-        <v>1307.546182962657</v>
+        <v>844.9556486454578</v>
       </c>
       <c r="Y41" t="n">
-        <v>917.4068509868455</v>
+        <v>844.9556486454578</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>859.1382992416497</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C42" t="n">
-        <v>684.6852699605228</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D42" t="n">
-        <v>535.7508602992715</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E42" t="n">
         <v>448.6781532488151</v>
@@ -7487,55 +7487,55 @@
         <v>71.3354039008882</v>
       </c>
       <c r="I42" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J42" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K42" t="n">
-        <v>288.9454078621914</v>
+        <v>560.6342506504908</v>
       </c>
       <c r="L42" t="n">
-        <v>817.8879681542082</v>
+        <v>848.5985338331533</v>
       </c>
       <c r="M42" t="n">
-        <v>1434.383601146895</v>
+        <v>1203.996138081825</v>
       </c>
       <c r="N42" t="n">
-        <v>1813.5961673772</v>
+        <v>1583.208704312129</v>
       </c>
       <c r="O42" t="n">
-        <v>2138.281785090957</v>
+        <v>1907.894322025886</v>
       </c>
       <c r="P42" t="n">
-        <v>2379.537551852666</v>
+        <v>2149.150088787595</v>
       </c>
       <c r="Q42" t="n">
-        <v>2490.891446435099</v>
+        <v>2468.480498228519</v>
       </c>
       <c r="R42" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957452</v>
       </c>
       <c r="T42" t="n">
         <v>2160.447087779</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.354900192149</v>
+        <v>1932.354900192148</v>
       </c>
       <c r="V42" t="n">
-        <v>1697.202791960406</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W42" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X42" t="n">
-        <v>1235.113935026672</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y42" t="n">
-        <v>1027.353636261718</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="43">
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>145.5683294195137</v>
+        <v>609.7827549824983</v>
       </c>
       <c r="C43" t="n">
-        <v>49.81782892870198</v>
+        <v>609.7827549824983</v>
       </c>
       <c r="D43" t="n">
-        <v>49.81782892870198</v>
+        <v>459.6661155701626</v>
       </c>
       <c r="E43" t="n">
-        <v>49.81782892870198</v>
+        <v>311.7530219877694</v>
       </c>
       <c r="F43" t="n">
-        <v>49.81782892870198</v>
+        <v>164.8630744898591</v>
       </c>
       <c r="G43" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="H43" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I43" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J43" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477626</v>
       </c>
       <c r="K43" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490677</v>
       </c>
       <c r="L43" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394354</v>
       </c>
       <c r="M43" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642498</v>
       </c>
       <c r="N43" t="n">
         <v>1104.867129907538</v>
@@ -7587,34 +7587,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P43" t="n">
-        <v>1557.066378230431</v>
+        <v>1557.06637823043</v>
       </c>
       <c r="Q43" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R43" t="n">
-        <v>1609.220368204927</v>
+        <v>1505.443183112051</v>
       </c>
       <c r="S43" t="n">
-        <v>1609.220368204927</v>
+        <v>1308.3517434821</v>
       </c>
       <c r="T43" t="n">
-        <v>1609.220368204927</v>
+        <v>1085.259822331915</v>
       </c>
       <c r="U43" t="n">
-        <v>1320.100582534149</v>
+        <v>1085.259822331915</v>
       </c>
       <c r="V43" t="n">
-        <v>1065.416094328262</v>
+        <v>830.5753341260285</v>
       </c>
       <c r="W43" t="n">
-        <v>775.9989242913009</v>
+        <v>830.5753341260285</v>
       </c>
       <c r="X43" t="n">
-        <v>548.0093733932836</v>
+        <v>830.5753341260285</v>
       </c>
       <c r="Y43" t="n">
-        <v>327.2167942497534</v>
+        <v>609.7827549824983</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1181.232979331143</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="C44" t="n">
-        <v>1181.232979331143</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.232979331143</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="E44" t="n">
-        <v>1181.232979331143</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="F44" t="n">
-        <v>770.247074541536</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="G44" t="n">
         <v>354.4831358895594</v>
       </c>
       <c r="H44" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I44" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J44" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819832</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799484</v>
       </c>
       <c r="L44" t="n">
         <v>772.869171454915</v>
       </c>
       <c r="M44" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N44" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O44" t="n">
         <v>2002.031077317523</v>
@@ -7669,31 +7669,31 @@
         <v>2299.347327962848</v>
       </c>
       <c r="Q44" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561745</v>
       </c>
       <c r="R44" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S44" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="T44" t="n">
-        <v>2155.838745326145</v>
+        <v>2155.838745326144</v>
       </c>
       <c r="U44" t="n">
         <v>1902.252949520223</v>
       </c>
       <c r="V44" t="n">
-        <v>1571.190062176653</v>
+        <v>1571.190062176652</v>
       </c>
       <c r="W44" t="n">
-        <v>1218.421406906539</v>
+        <v>1218.421406906538</v>
       </c>
       <c r="X44" t="n">
-        <v>1181.232979331143</v>
+        <v>844.9556486454578</v>
       </c>
       <c r="Y44" t="n">
-        <v>1181.232979331143</v>
+        <v>454.8163166696461</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>859.1382992416497</v>
+        <v>859.1382992416488</v>
       </c>
       <c r="C45" t="n">
-        <v>684.6852699605228</v>
+        <v>684.6852699605219</v>
       </c>
       <c r="D45" t="n">
-        <v>535.7508602992715</v>
+        <v>535.7508602992706</v>
       </c>
       <c r="E45" t="n">
-        <v>427.1605782766289</v>
+        <v>376.5134052938151</v>
       </c>
       <c r="F45" t="n">
-        <v>280.6260203035139</v>
+        <v>229.9788473207001</v>
       </c>
       <c r="G45" t="n">
-        <v>143.8929411728695</v>
+        <v>93.24576819005568</v>
       </c>
       <c r="H45" t="n">
-        <v>49.81782892870198</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I45" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J45" t="n">
         <v>234.0659274310207</v>
       </c>
       <c r="K45" t="n">
-        <v>583.0451988570704</v>
+        <v>583.04519885707</v>
       </c>
       <c r="L45" t="n">
-        <v>871.009482039733</v>
+        <v>871.0094820397325</v>
       </c>
       <c r="M45" t="n">
-        <v>1226.407086288405</v>
+        <v>1226.407086288404</v>
       </c>
       <c r="N45" t="n">
         <v>1605.619652518709</v>
@@ -7745,34 +7745,34 @@
         <v>1930.305270232466</v>
       </c>
       <c r="P45" t="n">
-        <v>2171.561036994176</v>
+        <v>2171.561036994175</v>
       </c>
       <c r="Q45" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="R45" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S45" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957452</v>
       </c>
       <c r="T45" t="n">
         <v>2160.447087779</v>
       </c>
       <c r="U45" t="n">
-        <v>1932.354900192149</v>
+        <v>1932.354900192148</v>
       </c>
       <c r="V45" t="n">
-        <v>1697.202791960406</v>
+        <v>1697.202791960405</v>
       </c>
       <c r="W45" t="n">
-        <v>1442.965435232205</v>
+        <v>1442.965435232204</v>
       </c>
       <c r="X45" t="n">
-        <v>1235.113935026672</v>
+        <v>1235.113935026671</v>
       </c>
       <c r="Y45" t="n">
-        <v>1027.353636261718</v>
+        <v>1027.353636261717</v>
       </c>
     </row>
     <row r="46">
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>917.3621541941963</v>
+        <v>1030.683412497187</v>
       </c>
       <c r="C46" t="n">
-        <v>748.4259712662894</v>
+        <v>861.7472295692801</v>
       </c>
       <c r="D46" t="n">
-        <v>598.3093318539536</v>
+        <v>711.6305901569443</v>
       </c>
       <c r="E46" t="n">
-        <v>450.3962382715605</v>
+        <v>620.3493151940911</v>
       </c>
       <c r="F46" t="n">
-        <v>303.5062907736501</v>
+        <v>473.4593676961807</v>
       </c>
       <c r="G46" t="n">
-        <v>303.5062907736501</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="H46" t="n">
         <v>156.4714025375973</v>
       </c>
       <c r="I46" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J46" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477626</v>
       </c>
       <c r="K46" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490677</v>
       </c>
       <c r="L46" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394354</v>
       </c>
       <c r="M46" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642498</v>
       </c>
       <c r="N46" t="n">
         <v>1104.867129907538</v>
@@ -7824,34 +7824,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P46" t="n">
-        <v>1557.066378230431</v>
+        <v>1557.06637823043</v>
       </c>
       <c r="Q46" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R46" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S46" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T46" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="U46" t="n">
-        <v>1609.220368204927</v>
+        <v>1320.100582534148</v>
       </c>
       <c r="V46" t="n">
-        <v>1609.220368204927</v>
+        <v>1320.100582534148</v>
       </c>
       <c r="W46" t="n">
-        <v>1319.803198167966</v>
+        <v>1030.683412497187</v>
       </c>
       <c r="X46" t="n">
-        <v>1319.803198167966</v>
+        <v>1030.683412497187</v>
       </c>
       <c r="Y46" t="n">
-        <v>1099.010619024436</v>
+        <v>1030.683412497187</v>
       </c>
     </row>
   </sheetData>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>148.3421391932283</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>9.967937521058815</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>32.60525894184555</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>220.7750796997739</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>263.7353825697127</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>170.9794606140144</v>
+        <v>148.3421391932279</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>22.8843483905338</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>170.9794606140149</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>9.967937521057763</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>7.177264930046533</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>72.89368480302923</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>261.5786998533645</v>
+        <v>261.5786998533649</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>72.89368480302903</v>
+        <v>72.89368480302943</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9953,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>243.8731454170441</v>
       </c>
       <c r="L27" t="n">
-        <v>350.2592227712699</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>19.70495798618282</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>7.177264930046988</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>72.89368480302915</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>105.4989437448739</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>315.5762314807236</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10366,10 +10366,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>72.89368480302932</v>
       </c>
       <c r="Q32" t="n">
-        <v>72.89368480302872</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>82.86162232408731</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>282.1447570480286</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>258.0892398948637</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>39.8074715504095</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>22.8843483905338</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>170.979460614015</v>
       </c>
       <c r="Q36" t="n">
-        <v>116.591511337285</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>148.3421391932279</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>263.7353825697125</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>220.7750796997726</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>148.3421391932271</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4124011205599</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>263.7353825697126</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>22.8843483905338</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>170.9794606140144</v>
+        <v>170.9794606140142</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053383</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23263,10 +23263,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>222.4564989710553</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.6199473531945</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>71.44310047544869</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>71.44310047544823</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>141.3565515044936</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>131.0983492671518</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>385.3376799536727</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
-        <v>67.96895394968166</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.1506693479881</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>71.44310047544863</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>71.44310047544825</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>32.90586136640243</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H16" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>105.5870378728063</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>25.51131139434546</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H17" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>100.6315056432605</v>
       </c>
       <c r="Y17" t="n">
-        <v>48.95082115840785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23816,7 +23816,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>71.44310047544916</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>71.44310047544911</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>23.04397914977156</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>105.5870378728063</v>
@@ -23940,7 +23940,7 @@
         <v>102.739413241946</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>44.63983602332951</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>42.78198881033904</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>31.00443552543862</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24053,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>71.44310047544916</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>50.14070125298476</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2331285761304</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>109.2792398557359</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>168.5521931151555</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>216.282506041659</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.8610019386828</v>
+        <v>219.1414193031915</v>
       </c>
       <c r="U25" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>185.7507941537396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>317.3339050404845</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>206.9146911261644</v>
@@ -24505,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>143.3273253432909</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>201.5912774874305</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>131.0983492671513</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>197.1610546182527</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>145.2689997947189</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>10.70571776990334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S31" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>185.6270724857261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I32" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>124.7874829717001</v>
+        <v>109.1780491248113</v>
       </c>
       <c r="T32" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.0499378478622</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>84.69100483370232</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>81.27467346343506</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>105.5870378728063</v>
+        <v>59.00409746445434</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>102.739413241946</v>
       </c>
       <c r="S34" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>220.8610019386828</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>325.9038513720733</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>411.6062992654567</v>
@@ -25174,7 +25174,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I35" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>322.0969588979667</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25244,16 +25244,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>71.44310047544913</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>50.14070125298476</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>39.19310983915663</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I37" t="n">
         <v>105.5870378728063</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>114.5076757664052</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25396,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>26.83769458011756</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>124.3433128285806</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25532,10 +25532,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>71.44310047544909</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>50.14070125298474</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>53.21787580248321</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I40" t="n">
         <v>105.5870378728063</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S40" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T40" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>72.31765833325687</v>
       </c>
     </row>
     <row r="41">
@@ -25630,16 +25630,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>315.5033335355828</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>312.6271256398917</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.6062992654567</v>
@@ -25648,7 +25648,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25715,7 +25715,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>71.4431004754491</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25766,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>71.44310047545</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>72.4538256127242</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3328844140846</v>
+        <v>52.43809130853904</v>
       </c>
       <c r="H43" t="n">
         <v>147.485201092913</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>283.4039926911947</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>332.9145573788279</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25952,7 +25952,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>50.14070125298483</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25961,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>71.44310047545002</v>
       </c>
       <c r="I45" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>56.0655004333445</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.920661739220691</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>102.739413241946</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S46" t="n">
         <v>195.1205252336517</v>
@@ -26079,7 +26079,7 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>635153.3307958468</v>
+        <v>635153.3307958466</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>635153.3307958466</v>
+        <v>635153.3307958465</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>647422.1765900402</v>
+        <v>647422.17659004</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>647422.1765900401</v>
+        <v>647422.17659004</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>647422.1765900401</v>
+        <v>647422.1765900402</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>635153.3307958468</v>
+        <v>635153.3307958466</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>635153.3307958468</v>
+        <v>635153.3307958466</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>635153.3307958468</v>
+        <v>635153.3307958466</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>635153.3307958468</v>
+        <v>635153.3307958466</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.3455698525</v>
       </c>
       <c r="C2" t="n">
         <v>593975.3455698526</v>
       </c>
       <c r="D2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.3455698527</v>
       </c>
       <c r="E2" t="n">
-        <v>436708.638297232</v>
+        <v>436708.6382972321</v>
       </c>
       <c r="F2" t="n">
-        <v>436708.638297232</v>
+        <v>436708.6382972322</v>
       </c>
       <c r="G2" t="n">
-        <v>436708.6382972321</v>
+        <v>436708.6382972319</v>
       </c>
       <c r="H2" t="n">
         <v>436708.638297232</v>
       </c>
       <c r="I2" t="n">
-        <v>443027.7805342855</v>
+        <v>443027.7805342856</v>
       </c>
       <c r="J2" t="n">
         <v>443027.7805342855</v>
@@ -26346,16 +26346,16 @@
         <v>443027.7805342856</v>
       </c>
       <c r="M2" t="n">
-        <v>436708.6382972321</v>
+        <v>436708.6382972319</v>
       </c>
       <c r="N2" t="n">
         <v>436708.6382972319</v>
       </c>
       <c r="O2" t="n">
-        <v>436708.638297232</v>
+        <v>436708.6382972319</v>
       </c>
       <c r="P2" t="n">
-        <v>436708.638297232</v>
+        <v>436708.6382972319</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>924651.5793761237</v>
+        <v>924651.579376124</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150597.3382468585</v>
+        <v>150597.3382468589</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,28 +26432,28 @@
         <v>18245.60406141439</v>
       </c>
       <c r="G4" t="n">
-        <v>18245.60406141437</v>
+        <v>18245.60406141438</v>
       </c>
       <c r="H4" t="n">
-        <v>18245.60406141437</v>
+        <v>18245.60406141438</v>
       </c>
       <c r="I4" t="n">
-        <v>21593.82968547191</v>
+        <v>21593.82968547192</v>
       </c>
       <c r="J4" t="n">
-        <v>21593.82968547191</v>
+        <v>21593.82968547193</v>
       </c>
       <c r="K4" t="n">
-        <v>21593.82968547191</v>
+        <v>21593.82968547193</v>
       </c>
       <c r="L4" t="n">
-        <v>21593.8296854719</v>
+        <v>21593.82968547192</v>
       </c>
       <c r="M4" t="n">
-        <v>18245.60406141437</v>
+        <v>18245.60406141438</v>
       </c>
       <c r="N4" t="n">
-        <v>18245.60406141437</v>
+        <v>18245.60406141438</v>
       </c>
       <c r="O4" t="n">
         <v>18245.60406141437</v>
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="F5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="G5" t="n">
         <v>57906.41050425672</v>
@@ -26508,10 +26508,10 @@
         <v>57906.41050425672</v>
       </c>
       <c r="O5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425671</v>
       </c>
       <c r="P5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425671</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>134824.6064037491</v>
+        <v>134780.4706250679</v>
       </c>
       <c r="C6" t="n">
-        <v>134824.6064037491</v>
+        <v>134780.4706250679</v>
       </c>
       <c r="D6" t="n">
-        <v>134824.6064037491</v>
+        <v>134780.4706250681</v>
       </c>
       <c r="E6" t="n">
-        <v>-564094.9556445628</v>
+        <v>-569562.0813291965</v>
       </c>
       <c r="F6" t="n">
-        <v>360556.6237315609</v>
+        <v>355089.4980469275</v>
       </c>
       <c r="G6" t="n">
-        <v>360556.623731561</v>
+        <v>355089.4980469272</v>
       </c>
       <c r="H6" t="n">
-        <v>360556.6237315609</v>
+        <v>355089.4980469273</v>
       </c>
       <c r="I6" t="n">
-        <v>357512.811105627</v>
+        <v>352263.5868774435</v>
       </c>
       <c r="J6" t="n">
-        <v>362408.2503762753</v>
+        <v>357159.0261480917</v>
       </c>
       <c r="K6" t="n">
-        <v>362408.2503762753</v>
+        <v>357159.0261480917</v>
       </c>
       <c r="L6" t="n">
-        <v>362408.2503762753</v>
+        <v>357159.0261480919</v>
       </c>
       <c r="M6" t="n">
-        <v>209959.2854847025</v>
+        <v>204492.1598000683</v>
       </c>
       <c r="N6" t="n">
-        <v>360556.6237315608</v>
+        <v>355089.4980469273</v>
       </c>
       <c r="O6" t="n">
-        <v>360556.6237315609</v>
+        <v>355089.4980469273</v>
       </c>
       <c r="P6" t="n">
-        <v>360556.6237315609</v>
+        <v>355089.4980469273</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>919.4890146074873</v>
+      </c>
+      <c r="F3" t="n">
+        <v>919.4890146074873</v>
+      </c>
+      <c r="G3" t="n">
+        <v>919.4890146074872</v>
+      </c>
+      <c r="H3" t="n">
+        <v>919.4890146074872</v>
+      </c>
+      <c r="I3" t="n">
+        <v>919.4890146074872</v>
+      </c>
+      <c r="J3" t="n">
+        <v>919.4890146074872</v>
+      </c>
+      <c r="K3" t="n">
+        <v>919.4890146074872</v>
+      </c>
+      <c r="L3" t="n">
+        <v>919.4890146074872</v>
+      </c>
+      <c r="M3" t="n">
+        <v>919.4890146074872</v>
+      </c>
+      <c r="N3" t="n">
+        <v>919.4890146074872</v>
+      </c>
+      <c r="O3" t="n">
         <v>919.4890146074871</v>
       </c>
-      <c r="F3" t="n">
+      <c r="P3" t="n">
         <v>919.4890146074871</v>
-      </c>
-      <c r="G3" t="n">
-        <v>919.4890146074873</v>
-      </c>
-      <c r="H3" t="n">
-        <v>919.4890146074873</v>
-      </c>
-      <c r="I3" t="n">
-        <v>919.4890146074873</v>
-      </c>
-      <c r="J3" t="n">
-        <v>919.4890146074873</v>
-      </c>
-      <c r="K3" t="n">
-        <v>919.4890146074873</v>
-      </c>
-      <c r="L3" t="n">
-        <v>919.4890146074873</v>
-      </c>
-      <c r="M3" t="n">
-        <v>919.4890146074873</v>
-      </c>
-      <c r="N3" t="n">
-        <v>919.4890146074873</v>
-      </c>
-      <c r="O3" t="n">
-        <v>919.4890146074873</v>
-      </c>
-      <c r="P3" t="n">
-        <v>919.4890146074873</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="F4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="G4" t="n">
         <v>622.7228616087747</v>
@@ -26828,10 +26828,10 @@
         <v>622.7228616087747</v>
       </c>
       <c r="O4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087745</v>
       </c>
       <c r="P4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087745</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304574</v>
+        <v>604.313487130459</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H11" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I11" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J11" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K11" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L11" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M11" t="n">
-        <v>649.0622128088318</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N11" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O11" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P11" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q11" t="n">
-        <v>399.1737460349518</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R11" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S11" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T11" t="n">
         <v>16.18115843796693</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H12" t="n">
         <v>19.10108311477063</v>
       </c>
       <c r="I12" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J12" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K12" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L12" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M12" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N12" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O12" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P12" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q12" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R12" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S12" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T12" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U12" t="n">
         <v>0.1301163699916256</v>
@@ -31931,7 +31931,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N13" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O13" t="n">
         <v>234.3641835920855</v>
@@ -31940,19 +31940,19 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R13" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S13" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T13" t="n">
-        <v>7.084587489598668</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H14" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I14" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J14" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K14" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L14" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M14" t="n">
-        <v>649.0622128088318</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N14" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O14" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P14" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q14" t="n">
-        <v>399.1737460349518</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R14" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S14" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T14" t="n">
         <v>16.18115843796693</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H15" t="n">
         <v>19.10108311477063</v>
       </c>
       <c r="I15" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J15" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K15" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L15" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M15" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N15" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O15" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P15" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q15" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R15" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S15" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T15" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U15" t="n">
         <v>0.1301163699916256</v>
@@ -32168,7 +32168,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N16" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O16" t="n">
         <v>234.3641835920855</v>
@@ -32177,19 +32177,19 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R16" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S16" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T16" t="n">
-        <v>7.084587489598668</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,28 +32232,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I17" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J17" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K17" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L17" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M17" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N17" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O17" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P17" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q17" t="n">
         <v>399.1737460349519</v>
@@ -32268,7 +32268,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U17" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H18" t="n">
         <v>19.10108311477063</v>
@@ -32314,19 +32314,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J18" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K18" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L18" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M18" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N18" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O18" t="n">
         <v>470.5615148623808</v>
@@ -32335,16 +32335,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q18" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R18" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S18" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T18" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U18" t="n">
         <v>0.1301163699916256</v>
@@ -32405,7 +32405,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N19" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O19" t="n">
         <v>234.3641835920855</v>
@@ -32417,16 +32417,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R19" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S19" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T19" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,28 +32469,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I20" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J20" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K20" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L20" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M20" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N20" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O20" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P20" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q20" t="n">
         <v>399.1737460349519</v>
@@ -32505,7 +32505,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U20" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H21" t="n">
         <v>19.10108311477063</v>
@@ -32551,19 +32551,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J21" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K21" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L21" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M21" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N21" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O21" t="n">
         <v>470.5615148623808</v>
@@ -32572,16 +32572,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q21" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R21" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S21" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T21" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U21" t="n">
         <v>0.1301163699916256</v>
@@ -32642,7 +32642,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N22" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O22" t="n">
         <v>234.3641835920855</v>
@@ -32654,16 +32654,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R22" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S22" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T22" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,28 +32706,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I23" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J23" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K23" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L23" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M23" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N23" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O23" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P23" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q23" t="n">
         <v>399.1737460349519</v>
@@ -32742,7 +32742,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U23" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H24" t="n">
         <v>19.10108311477063</v>
@@ -32788,19 +32788,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J24" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K24" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L24" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M24" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N24" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O24" t="n">
         <v>470.5615148623808</v>
@@ -32809,16 +32809,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q24" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R24" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S24" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T24" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U24" t="n">
         <v>0.1301163699916256</v>
@@ -32879,7 +32879,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N25" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O25" t="n">
         <v>234.3641835920855</v>
@@ -32891,16 +32891,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R25" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S25" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T25" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,28 +32943,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I26" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J26" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K26" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L26" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M26" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N26" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O26" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P26" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q26" t="n">
         <v>399.1737460349519</v>
@@ -32979,7 +32979,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U26" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H27" t="n">
         <v>19.10108311477063</v>
@@ -33025,19 +33025,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J27" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K27" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L27" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M27" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N27" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O27" t="n">
         <v>470.5615148623808</v>
@@ -33046,16 +33046,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q27" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R27" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S27" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T27" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U27" t="n">
         <v>0.1301163699916256</v>
@@ -33116,7 +33116,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N28" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O28" t="n">
         <v>234.3641835920855</v>
@@ -33128,16 +33128,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R28" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S28" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T28" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,28 +33180,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I29" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J29" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K29" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L29" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M29" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N29" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O29" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P29" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q29" t="n">
         <v>399.1737460349519</v>
@@ -33216,7 +33216,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U29" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H30" t="n">
         <v>19.10108311477063</v>
@@ -33262,19 +33262,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J30" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K30" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L30" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M30" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N30" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O30" t="n">
         <v>470.5615148623808</v>
@@ -33283,16 +33283,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q30" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R30" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S30" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T30" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U30" t="n">
         <v>0.1301163699916256</v>
@@ -33353,7 +33353,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N31" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O31" t="n">
         <v>234.3641835920855</v>
@@ -33365,16 +33365,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R31" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S31" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T31" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,28 +33417,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I32" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J32" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K32" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L32" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M32" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N32" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O32" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P32" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q32" t="n">
         <v>399.1737460349519</v>
@@ -33453,7 +33453,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U32" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H33" t="n">
         <v>19.10108311477063</v>
@@ -33499,19 +33499,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J33" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K33" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L33" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M33" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N33" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O33" t="n">
         <v>470.5615148623808</v>
@@ -33520,16 +33520,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q33" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R33" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S33" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T33" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U33" t="n">
         <v>0.1301163699916256</v>
@@ -33590,7 +33590,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N34" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O34" t="n">
         <v>234.3641835920855</v>
@@ -33602,16 +33602,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R34" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S34" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T34" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,28 +33654,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I35" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J35" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K35" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L35" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M35" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N35" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O35" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P35" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q35" t="n">
         <v>399.1737460349519</v>
@@ -33690,7 +33690,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U35" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H36" t="n">
         <v>19.10108311477063</v>
@@ -33736,19 +33736,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J36" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K36" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L36" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M36" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N36" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O36" t="n">
         <v>470.5615148623808</v>
@@ -33757,16 +33757,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q36" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R36" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S36" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T36" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U36" t="n">
         <v>0.1301163699916256</v>
@@ -33827,7 +33827,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N37" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O37" t="n">
         <v>234.3641835920855</v>
@@ -33839,16 +33839,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R37" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S37" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T37" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,28 +33891,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I38" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J38" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K38" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L38" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M38" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N38" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O38" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P38" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q38" t="n">
         <v>399.1737460349519</v>
@@ -33927,7 +33927,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U38" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H39" t="n">
         <v>19.10108311477063</v>
@@ -33973,19 +33973,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J39" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K39" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L39" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M39" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N39" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O39" t="n">
         <v>470.5615148623808</v>
@@ -33994,16 +33994,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q39" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R39" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S39" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T39" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U39" t="n">
         <v>0.1301163699916256</v>
@@ -34064,7 +34064,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N40" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O40" t="n">
         <v>234.3641835920855</v>
@@ -34076,16 +34076,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R40" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S40" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T40" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678337</v>
       </c>
       <c r="H41" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451828</v>
       </c>
       <c r="I41" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J41" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K41" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L41" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M41" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088318</v>
       </c>
       <c r="N41" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857305</v>
       </c>
       <c r="O41" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P41" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q41" t="n">
-        <v>399.1737460349519</v>
+        <v>399.1737460349518</v>
       </c>
       <c r="R41" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S41" t="n">
-        <v>84.23258661454521</v>
+        <v>84.2325866145452</v>
       </c>
       <c r="T41" t="n">
         <v>16.18115843796693</v>
       </c>
       <c r="U41" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H42" t="n">
         <v>19.10108311477063</v>
       </c>
       <c r="I42" t="n">
-        <v>68.09423362895072</v>
+        <v>68.0942336289507</v>
       </c>
       <c r="J42" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K42" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321118</v>
       </c>
       <c r="L42" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M42" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N42" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O42" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623807</v>
       </c>
       <c r="P42" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130262</v>
       </c>
       <c r="Q42" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R42" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S42" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096892</v>
       </c>
       <c r="T42" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U42" t="n">
         <v>0.1301163699916256</v>
@@ -34301,7 +34301,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N43" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O43" t="n">
         <v>234.3641835920855</v>
@@ -34310,19 +34310,19 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.8428412057306</v>
+        <v>138.8428412057305</v>
       </c>
       <c r="R43" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522343</v>
       </c>
       <c r="S43" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332052</v>
       </c>
       <c r="T43" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598668</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678337</v>
       </c>
       <c r="H44" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451828</v>
       </c>
       <c r="I44" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J44" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K44" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L44" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M44" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088318</v>
       </c>
       <c r="N44" t="n">
-        <v>659.5647179857302</v>
+        <v>659.5647179857305</v>
       </c>
       <c r="O44" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P44" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q44" t="n">
-        <v>399.1737460349519</v>
+        <v>399.1737460349518</v>
       </c>
       <c r="R44" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S44" t="n">
-        <v>84.23258661454521</v>
+        <v>84.2325866145452</v>
       </c>
       <c r="T44" t="n">
         <v>16.18115843796693</v>
       </c>
       <c r="U44" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H45" t="n">
         <v>19.10108311477063</v>
       </c>
       <c r="I45" t="n">
-        <v>68.09423362895072</v>
+        <v>68.0942336289507</v>
       </c>
       <c r="J45" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K45" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321118</v>
       </c>
       <c r="L45" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M45" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N45" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O45" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623807</v>
       </c>
       <c r="P45" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130262</v>
       </c>
       <c r="Q45" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R45" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S45" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096892</v>
       </c>
       <c r="T45" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U45" t="n">
         <v>0.1301163699916256</v>
@@ -34538,7 +34538,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N46" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O46" t="n">
         <v>234.3641835920855</v>
@@ -34547,19 +34547,19 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.8428412057306</v>
+        <v>138.8428412057305</v>
       </c>
       <c r="R46" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522343</v>
       </c>
       <c r="S46" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332052</v>
       </c>
       <c r="T46" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598668</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K11" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L11" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M11" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N11" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O11" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P11" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R11" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.0181550659737</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K12" t="n">
-        <v>445.9900909703314</v>
+        <v>329.8669931509812</v>
       </c>
       <c r="L12" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M12" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N12" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O12" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P12" t="n">
-        <v>253.6606312197548</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q12" t="n">
-        <v>322.5559691322455</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R12" t="n">
-        <v>22.63732142078699</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K13" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L13" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M13" t="n">
         <v>299.4977962876914</v>
@@ -35582,13 +35582,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O13" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P13" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K14" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L14" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M14" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N14" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O14" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P14" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R14" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.0181550659737</v>
+        <v>92.62341400781931</v>
       </c>
       <c r="K15" t="n">
-        <v>181.5248539577528</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L15" t="n">
-        <v>511.6480930155946</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M15" t="n">
-        <v>622.7228616087748</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N15" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O15" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P15" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q15" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R15" t="n">
-        <v>22.63732142078699</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K16" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L16" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M16" t="n">
         <v>299.4977962876914</v>
@@ -35819,13 +35819,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O16" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P16" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>132.6846713669506</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K17" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L17" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M17" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N17" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O17" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P17" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q17" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R17" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5043145717674</v>
+        <v>329.8669931509808</v>
       </c>
       <c r="L18" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M18" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N18" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O18" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P18" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q18" t="n">
-        <v>322.5559691322457</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K19" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L19" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M19" t="n">
         <v>299.4977962876914</v>
@@ -36056,13 +36056,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O19" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P19" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K20" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L20" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M20" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N20" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O20" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P20" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q20" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R20" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.01815506597376</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K21" t="n">
-        <v>445.9900909703316</v>
+        <v>352.5043145717678</v>
       </c>
       <c r="L21" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M21" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N21" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O21" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P21" t="n">
-        <v>253.6606312197538</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q21" t="n">
-        <v>322.5559691322457</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R21" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K22" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L22" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M22" t="n">
         <v>299.4977962876914</v>
@@ -36293,13 +36293,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O22" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P22" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>139.8619362969974</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K23" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L23" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M23" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N23" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O23" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P23" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.8680561605024</v>
+        <v>249.7617409635316</v>
       </c>
       <c r="R23" t="n">
-        <v>82.32727126020743</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.01815506597376</v>
+        <v>60.01815506597373</v>
       </c>
       <c r="K24" t="n">
-        <v>443.1035538111175</v>
+        <v>443.1035538111178</v>
       </c>
       <c r="L24" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M24" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N24" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O24" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P24" t="n">
         <v>562.1554623386332</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.4786813963966</v>
+        <v>112.4786813963965</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K25" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L25" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M25" t="n">
         <v>299.4977962876914</v>
@@ -36530,13 +36530,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O25" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P25" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q25" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K26" t="n">
-        <v>323.0046407605698</v>
+        <v>323.0046407605701</v>
       </c>
       <c r="L26" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M26" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N26" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O26" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P26" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q26" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R26" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.01815506597376</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K27" t="n">
-        <v>181.524853957753</v>
+        <v>425.397999374797</v>
       </c>
       <c r="L27" t="n">
-        <v>641.1322360870907</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M27" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N27" t="n">
-        <v>402.7479541784099</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O27" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P27" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q27" t="n">
-        <v>322.5559691322457</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K28" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L28" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M28" t="n">
         <v>299.4977962876914</v>
@@ -36767,13 +36767,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O28" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P28" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q28" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>132.6846713669509</v>
+        <v>139.8619362969978</v>
       </c>
       <c r="K29" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L29" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M29" t="n">
-        <v>491.6096643845884</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N29" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O29" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P29" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q29" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R29" t="n">
-        <v>16.61085138722498</v>
+        <v>82.3272712602074</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>165.5170988108477</v>
+        <v>60.01815506597373</v>
       </c>
       <c r="K30" t="n">
-        <v>445.9900909703316</v>
+        <v>445.9900909703315</v>
       </c>
       <c r="L30" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M30" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N30" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O30" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P30" t="n">
-        <v>243.6926936986961</v>
+        <v>559.2689251794196</v>
       </c>
       <c r="Q30" t="n">
-        <v>322.5559691322457</v>
+        <v>112.4786813963965</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K31" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L31" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M31" t="n">
         <v>299.4977962876914</v>
@@ -37004,13 +37004,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O31" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P31" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q31" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K32" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L32" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M32" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N32" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O32" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P32" t="n">
-        <v>300.319445096288</v>
+        <v>373.2131298993172</v>
       </c>
       <c r="Q32" t="n">
-        <v>249.7617409635312</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R32" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.01815506597376</v>
+        <v>142.879777390061</v>
       </c>
       <c r="K33" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703315</v>
       </c>
       <c r="L33" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M33" t="n">
-        <v>641.1322360870907</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N33" t="n">
-        <v>641.1322360870907</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O33" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P33" t="n">
-        <v>283.5001652491056</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K34" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L34" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M34" t="n">
         <v>299.4977962876914</v>
@@ -37241,13 +37241,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O34" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P34" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q34" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K35" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L35" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M35" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N35" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O35" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P35" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.8680561605024</v>
+        <v>176.868056160503</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K36" t="n">
-        <v>445.9900909703316</v>
+        <v>181.5248539577529</v>
       </c>
       <c r="L36" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M36" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N36" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O36" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P36" t="n">
-        <v>243.6926936986961</v>
+        <v>414.672154312711</v>
       </c>
       <c r="Q36" t="n">
-        <v>229.0701927336815</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K37" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L37" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M37" t="n">
         <v>299.4977962876914</v>
@@ -37478,13 +37478,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O37" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P37" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q37" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K38" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L38" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M38" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N38" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O38" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P38" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.8680561605021</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.01815506597376</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K39" t="n">
-        <v>181.524853957753</v>
+        <v>329.8669931509808</v>
       </c>
       <c r="L39" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M39" t="n">
-        <v>622.7228616087747</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N39" t="n">
-        <v>603.8180758919997</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O39" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P39" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R39" t="n">
-        <v>22.63732142078702</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K40" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L40" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M40" t="n">
         <v>299.4977962876914</v>
@@ -37715,13 +37715,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O40" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P40" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K41" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L41" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M41" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815584</v>
       </c>
       <c r="N41" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891395</v>
       </c>
       <c r="O41" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P41" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605023</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722493</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.01815506597376</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K42" t="n">
-        <v>181.524853957753</v>
+        <v>329.8669931509799</v>
       </c>
       <c r="L42" t="n">
-        <v>534.2854144363807</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M42" t="n">
-        <v>622.7228616087747</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N42" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O42" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P42" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.63732142078699</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058011</v>
       </c>
       <c r="K43" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295873</v>
       </c>
       <c r="L43" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M43" t="n">
         <v>299.4977962876914</v>
@@ -37952,13 +37952,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O43" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P43" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403615</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K44" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L44" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M44" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N44" t="n">
-        <v>430.1516543891393</v>
+        <v>430.1516543891395</v>
       </c>
       <c r="O44" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P44" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605023</v>
       </c>
       <c r="R44" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722493</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>186.1091904063826</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K45" t="n">
-        <v>352.5043145717674</v>
+        <v>352.504314571767</v>
       </c>
       <c r="L45" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M45" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N45" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O45" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P45" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q45" t="n">
-        <v>322.5559691322457</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058011</v>
       </c>
       <c r="K46" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295873</v>
       </c>
       <c r="L46" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M46" t="n">
         <v>299.4977962876914</v>
@@ -38189,13 +38189,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O46" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P46" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403615</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_15_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_15_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1713478.693874685</v>
+        <v>1740944.037839688</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8202768.976400673</v>
+        <v>8202768.976400676</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>336.164696788584</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>59.99870653805438</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I12" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,10 +1502,10 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T12" t="n">
-        <v>192.192932426668</v>
+        <v>120.7498319512194</v>
       </c>
       <c r="U12" t="n">
-        <v>154.368165235535</v>
+        <v>225.8112657109832</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>53.76397372915754</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>79.50445043418918</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U13" t="n">
         <v>286.2285878140705</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>162.7640217781763</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U14" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>43.25967316037723</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H15" t="n">
-        <v>21.69126064627758</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I15" t="n">
         <v>21.30239922246436</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216741982</v>
       </c>
       <c r="T15" t="n">
         <v>192.192932426668</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>146.9261188155349</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>21.52263816849801</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2285878140705</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>299.4088312407106</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>269.0995950352086</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1928,7 +1928,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>76.0019650891896</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1940,10 +1940,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H18" t="n">
-        <v>93.13436112172583</v>
+        <v>42.99365986874107</v>
       </c>
       <c r="I18" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>144.2028419488563</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>141.743258243593</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>339.1483812619227</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.775649210043953</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H21" t="n">
-        <v>42.99365986874107</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T21" t="n">
-        <v>192.192932426668</v>
+        <v>120.7498319512199</v>
       </c>
       <c r="U21" t="n">
         <v>225.8112657109832</v>
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>37.68887701506215</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
-        <v>142.8584034680921</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>195.3237932237977</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>165.383765854721</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2414,10 +2414,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H24" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I24" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>195.1205252336517</v>
+        <v>71.21628984055222</v>
       </c>
       <c r="T25" t="n">
-        <v>1.719582635491358</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2560,22 +2560,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>37.34913658019848</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.6062992654567</v>
+        <v>85.01916036345277</v>
       </c>
       <c r="H26" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H27" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I27" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U28" t="n">
-        <v>84.63731032663992</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>68.56222643325513</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>185.5727870452279</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>206.9146911261644</v>
+        <v>195.3237932237975</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2888,10 +2888,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H30" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I30" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>155.6271666441812</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H31" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>130.3434907082534</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3031,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.6062992654567</v>
+        <v>384.4977263746778</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>15.60943384688882</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T32" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H33" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I33" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>46.58294040835201</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>110.7810918193344</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>234.8020934180696</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>47.6341417805023</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3356,7 +3356,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>73.62611191793475</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>135.3657483393379</v>
@@ -3365,7 +3365,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I36" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>134.9469826428689</v>
+        <v>84.80628138988455</v>
       </c>
       <c r="T36" t="n">
         <v>192.192932426668</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>53.76397372915823</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U37" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V37" t="n">
-        <v>137.6299675574228</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>95.00823514637287</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>384.7686046853391</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216742027</v>
       </c>
       <c r="T39" t="n">
         <v>192.192932426668</v>
@@ -3647,7 +3647,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>155.6322839504927</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T40" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>146.2669950188379</v>
+        <v>77.22810184760128</v>
       </c>
     </row>
     <row r="41">
@@ -3742,19 +3742,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>39.17970808510012</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>115.5762118345046</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246437</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,13 +3872,13 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T42" t="n">
-        <v>192.192932426668</v>
+        <v>120.7498319512194</v>
       </c>
       <c r="U42" t="n">
         <v>225.8112657109832</v>
       </c>
       <c r="V42" t="n">
-        <v>161.3574866739753</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>113.8947931055455</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>102.7394132419461</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T43" t="n">
-        <v>220.8610019386828</v>
+        <v>84.45854741290778</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>99.32984897228583</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H44" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>24.62639036200138</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,10 +4073,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H45" t="n">
-        <v>21.69126064627581</v>
+        <v>21.69126064627407</v>
       </c>
       <c r="I45" t="n">
-        <v>21.30239922246437</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>90.36846221322467</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>77.22810184760112</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U46" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>937.1724264491288</v>
+        <v>1467.499604034966</v>
       </c>
       <c r="C11" t="n">
-        <v>937.1724264491288</v>
+        <v>1098.537087094554</v>
       </c>
       <c r="D11" t="n">
-        <v>937.1724264491288</v>
+        <v>740.2713884878037</v>
       </c>
       <c r="E11" t="n">
-        <v>937.1724264491288</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="F11" t="n">
-        <v>526.1865216595213</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="G11" t="n">
-        <v>110.4225830075448</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H11" t="n">
         <v>49.81782892870199</v>
@@ -5041,13 +5041,13 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J11" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819841</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799492</v>
       </c>
       <c r="L11" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M11" t="n">
         <v>1187.397991240659</v>
@@ -5059,34 +5059,34 @@
         <v>2002.031077317524</v>
       </c>
       <c r="P11" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q11" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R11" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S11" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T11" t="n">
-        <v>2281.886707923823</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="U11" t="n">
-        <v>2028.300912117901</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.23802477433</v>
+        <v>2159.828559091528</v>
       </c>
       <c r="W11" t="n">
-        <v>1697.23802477433</v>
+        <v>1807.059903821414</v>
       </c>
       <c r="X11" t="n">
-        <v>1323.772266513251</v>
+        <v>1807.059903821414</v>
       </c>
       <c r="Y11" t="n">
-        <v>1323.772266513251</v>
+        <v>1807.059903821414</v>
       </c>
     </row>
     <row r="12">
@@ -5120,37 +5120,37 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J12" t="n">
-        <v>234.0659274310208</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K12" t="n">
-        <v>560.6342506504922</v>
+        <v>583.0451988570713</v>
       </c>
       <c r="L12" t="n">
-        <v>848.5985338331548</v>
+        <v>871.0094820397338</v>
       </c>
       <c r="M12" t="n">
-        <v>1203.996138081826</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N12" t="n">
-        <v>1583.208704312131</v>
+        <v>1605.61965251871</v>
       </c>
       <c r="O12" t="n">
-        <v>1907.894322025888</v>
+        <v>1930.305270232467</v>
       </c>
       <c r="P12" t="n">
-        <v>2149.150088787597</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q12" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R12" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S12" t="n">
         <v>2354.581362957454</v>
       </c>
       <c r="T12" t="n">
-        <v>2160.447087779001</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U12" t="n">
         <v>2004.519648147148</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>49.81782892870199</v>
+        <v>104.1248730995682</v>
       </c>
       <c r="C13" t="n">
-        <v>49.81782892870199</v>
+        <v>104.1248730995682</v>
       </c>
       <c r="D13" t="n">
-        <v>49.81782892870199</v>
+        <v>104.1248730995682</v>
       </c>
       <c r="E13" t="n">
-        <v>49.81782892870199</v>
+        <v>104.1248730995682</v>
       </c>
       <c r="F13" t="n">
         <v>49.81782892870199</v>
@@ -5199,16 +5199,16 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J13" t="n">
-        <v>73.44728005477633</v>
+        <v>73.44728005477629</v>
       </c>
       <c r="K13" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490677</v>
       </c>
       <c r="L13" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394354</v>
       </c>
       <c r="M13" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642498</v>
       </c>
       <c r="N13" t="n">
         <v>1104.867129907538</v>
@@ -5217,34 +5217,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P13" t="n">
-        <v>1557.066378230431</v>
+        <v>1557.06637823043</v>
       </c>
       <c r="Q13" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R13" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S13" t="n">
-        <v>1412.128928574975</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T13" t="n">
-        <v>1331.821402883875</v>
+        <v>1386.128447054741</v>
       </c>
       <c r="U13" t="n">
-        <v>1042.701617213097</v>
+        <v>1097.008661383963</v>
       </c>
       <c r="V13" t="n">
-        <v>788.0171290072101</v>
+        <v>842.3241731780762</v>
       </c>
       <c r="W13" t="n">
-        <v>498.5999589702494</v>
+        <v>552.9070031411156</v>
       </c>
       <c r="X13" t="n">
-        <v>270.6104080722321</v>
+        <v>324.9174522430983</v>
       </c>
       <c r="Y13" t="n">
-        <v>49.81782892870199</v>
+        <v>104.1248730995682</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>465.5817675806785</v>
+        <v>1207.86510052203</v>
       </c>
       <c r="C14" t="n">
-        <v>465.5817675806785</v>
+        <v>838.9025835816184</v>
       </c>
       <c r="D14" t="n">
-        <v>465.5817675806785</v>
+        <v>838.9025835816184</v>
       </c>
       <c r="E14" t="n">
-        <v>465.5817675806785</v>
+        <v>838.9025835816184</v>
       </c>
       <c r="F14" t="n">
-        <v>465.5817675806785</v>
+        <v>838.9025835816184</v>
       </c>
       <c r="G14" t="n">
-        <v>49.81782892870199</v>
+        <v>423.1386449296419</v>
       </c>
       <c r="H14" t="n">
-        <v>49.81782892870199</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I14" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J14" t="n">
         <v>181.1756535819834</v>
@@ -5296,34 +5296,34 @@
         <v>2002.031077317523</v>
       </c>
       <c r="P14" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q14" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R14" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.843483837423</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T14" t="n">
-        <v>2200.435381031184</v>
+        <v>2281.886707923822</v>
       </c>
       <c r="U14" t="n">
-        <v>1946.849585225263</v>
+        <v>2028.3009121179</v>
       </c>
       <c r="V14" t="n">
-        <v>1615.786697881692</v>
+        <v>2028.3009121179</v>
       </c>
       <c r="W14" t="n">
-        <v>1615.786697881692</v>
+        <v>2028.3009121179</v>
       </c>
       <c r="X14" t="n">
-        <v>1242.320939620612</v>
+        <v>1984.604272561964</v>
       </c>
       <c r="Y14" t="n">
-        <v>852.1816076448004</v>
+        <v>1594.464940586152</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>859.1382992416507</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C15" t="n">
-        <v>684.6852699605237</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D15" t="n">
-        <v>535.7508602992724</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E15" t="n">
-        <v>376.5134052938169</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F15" t="n">
-        <v>229.9788473207019</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G15" t="n">
-        <v>93.2457681900575</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H15" t="n">
-        <v>71.33540390088822</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J15" t="n">
-        <v>141.5150087964431</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K15" t="n">
-        <v>583.0451988570713</v>
+        <v>583.0451988570704</v>
       </c>
       <c r="L15" t="n">
-        <v>871.0094820397339</v>
+        <v>871.009482039733</v>
       </c>
       <c r="M15" t="n">
         <v>1226.407086288405</v>
       </c>
       <c r="N15" t="n">
-        <v>1605.61965251871</v>
+        <v>1605.619652518709</v>
       </c>
       <c r="O15" t="n">
-        <v>1930.305270232467</v>
+        <v>1930.305270232466</v>
       </c>
       <c r="P15" t="n">
         <v>2171.561036994176</v>
       </c>
       <c r="Q15" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R15" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S15" t="n">
-        <v>2354.581362957454</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T15" t="n">
-        <v>2160.447087779001</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U15" t="n">
-        <v>1932.35490019215</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V15" t="n">
-        <v>1697.202791960407</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W15" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X15" t="n">
-        <v>1235.113935026673</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y15" t="n">
-        <v>1027.353636261719</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>496.8225125223329</v>
+        <v>366.3609085630438</v>
       </c>
       <c r="C16" t="n">
-        <v>496.8225125223329</v>
+        <v>366.3609085630438</v>
       </c>
       <c r="D16" t="n">
-        <v>346.7058731099971</v>
+        <v>344.6208700090054</v>
       </c>
       <c r="E16" t="n">
-        <v>198.792779527604</v>
+        <v>196.7077764266123</v>
       </c>
       <c r="F16" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G16" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H16" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I16" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J16" t="n">
-        <v>73.44728005477633</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K16" t="n">
         <v>242.1145636490678</v>
@@ -5463,25 +5463,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S16" t="n">
-        <v>1412.128928574975</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T16" t="n">
-        <v>1189.037007424791</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="U16" t="n">
-        <v>899.9172217540125</v>
+        <v>1320.100582534149</v>
       </c>
       <c r="V16" t="n">
-        <v>645.2327335481257</v>
+        <v>1065.416094328262</v>
       </c>
       <c r="W16" t="n">
-        <v>645.2327335481257</v>
+        <v>775.9989242913009</v>
       </c>
       <c r="X16" t="n">
-        <v>645.2327335481257</v>
+        <v>548.0093733932836</v>
       </c>
       <c r="Y16" t="n">
-        <v>645.2327335481257</v>
+        <v>548.0093733932836</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>765.4690406791669</v>
+        <v>487.4358549091962</v>
       </c>
       <c r="C17" t="n">
-        <v>765.4690406791669</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="D17" t="n">
-        <v>765.4690406791669</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="E17" t="n">
-        <v>765.4690406791669</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="F17" t="n">
-        <v>354.4831358895594</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="G17" t="n">
-        <v>354.4831358895594</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H17" t="n">
-        <v>49.81782892870198</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I17" t="n">
         <v>49.81782892870198</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K17" t="n">
         <v>428.7854999799488</v>
@@ -5524,7 +5524,7 @@
         <v>772.8691714549152</v>
       </c>
       <c r="M17" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N17" t="n">
         <v>1613.248129085907</v>
@@ -5536,31 +5536,31 @@
         <v>2299.347327962849</v>
       </c>
       <c r="Q17" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R17" t="n">
         <v>2490.891446435099</v>
       </c>
       <c r="S17" t="n">
-        <v>2364.843483837422</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T17" t="n">
-        <v>2364.843483837422</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="U17" t="n">
-        <v>2111.2576880315</v>
+        <v>2237.305650629177</v>
       </c>
       <c r="V17" t="n">
-        <v>1780.19480068793</v>
+        <v>1906.242763285607</v>
       </c>
       <c r="W17" t="n">
-        <v>1427.426145417816</v>
+        <v>1553.474108015492</v>
       </c>
       <c r="X17" t="n">
-        <v>1155.608372654979</v>
+        <v>1180.008349754413</v>
       </c>
       <c r="Y17" t="n">
-        <v>765.4690406791669</v>
+        <v>789.8690177786009</v>
       </c>
     </row>
     <row r="18">
@@ -5576,46 +5576,46 @@
         <v>684.6852699605228</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992715</v>
       </c>
       <c r="E18" t="n">
-        <v>448.6781532488151</v>
+        <v>376.513405293816</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1435952757001</v>
+        <v>229.978847320701</v>
       </c>
       <c r="G18" t="n">
-        <v>165.4105161450557</v>
+        <v>93.24576819005659</v>
       </c>
       <c r="H18" t="n">
-        <v>71.3354039008882</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I18" t="n">
         <v>49.81782892870198</v>
       </c>
       <c r="J18" t="n">
-        <v>234.0659274310207</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K18" t="n">
-        <v>560.6342506504916</v>
+        <v>413.7755328491962</v>
       </c>
       <c r="L18" t="n">
-        <v>848.5985338331541</v>
+        <v>701.7398160318587</v>
       </c>
       <c r="M18" t="n">
-        <v>1203.996138081826</v>
+        <v>1057.13742028053</v>
       </c>
       <c r="N18" t="n">
-        <v>1583.20870431213</v>
+        <v>1436.349986510835</v>
       </c>
       <c r="O18" t="n">
-        <v>1907.894322025887</v>
+        <v>1761.035604224592</v>
       </c>
       <c r="P18" t="n">
-        <v>2149.150088787596</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R18" t="n">
         <v>2490.891446435099</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>660.3783239816545</v>
+        <v>621.3724612785738</v>
       </c>
       <c r="C19" t="n">
-        <v>514.7188876696785</v>
+        <v>621.3724612785738</v>
       </c>
       <c r="D19" t="n">
-        <v>514.7188876696785</v>
+        <v>621.3724612785738</v>
       </c>
       <c r="E19" t="n">
-        <v>366.8057940872854</v>
+        <v>473.4593676961807</v>
       </c>
       <c r="F19" t="n">
-        <v>366.8057940872854</v>
+        <v>473.4593676961807</v>
       </c>
       <c r="G19" t="n">
-        <v>198.792779527604</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="H19" t="n">
-        <v>49.81782892870198</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I19" t="n">
         <v>49.81782892870198</v>
       </c>
       <c r="J19" t="n">
-        <v>73.4472800547763</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K19" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L19" t="n">
-        <v>513.4770511394355</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M19" t="n">
-        <v>809.97986946425</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N19" t="n">
         <v>1104.867129907538</v>
@@ -5694,31 +5694,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q19" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R19" t="n">
-        <v>1609.220368204926</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S19" t="n">
-        <v>1609.220368204926</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="T19" t="n">
-        <v>1386.128447054742</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="U19" t="n">
-        <v>1386.128447054742</v>
+        <v>1019.231957811322</v>
       </c>
       <c r="V19" t="n">
-        <v>1131.443958848855</v>
+        <v>764.5474696054355</v>
       </c>
       <c r="W19" t="n">
-        <v>842.0267888118942</v>
+        <v>621.3724612785738</v>
       </c>
       <c r="X19" t="n">
-        <v>842.0267888118942</v>
+        <v>621.3724612785738</v>
       </c>
       <c r="Y19" t="n">
-        <v>842.0267888118942</v>
+        <v>621.3724612785738</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1588.104311797488</v>
+        <v>1989.584140515693</v>
       </c>
       <c r="C20" t="n">
-        <v>1219.141794857077</v>
+        <v>1620.621623575281</v>
       </c>
       <c r="D20" t="n">
-        <v>1219.141794857077</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E20" t="n">
         <v>876.5676723702861</v>
@@ -5743,25 +5743,25 @@
         <v>465.5817675806785</v>
       </c>
       <c r="G20" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H20" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I20" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J20" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K20" t="n">
         <v>428.7854999799487</v>
       </c>
       <c r="L20" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M20" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N20" t="n">
         <v>1613.248129085907</v>
@@ -5773,31 +5773,31 @@
         <v>2299.347327962849</v>
       </c>
       <c r="Q20" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R20" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S20" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T20" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="U20" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="V20" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="W20" t="n">
-        <v>2364.843483837422</v>
+        <v>2363.049898776772</v>
       </c>
       <c r="X20" t="n">
-        <v>2364.843483837422</v>
+        <v>1989.584140515693</v>
       </c>
       <c r="Y20" t="n">
-        <v>1974.70415186161</v>
+        <v>1989.584140515693</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>859.1382992416497</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C21" t="n">
-        <v>684.6852699605228</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D21" t="n">
-        <v>535.7508602992715</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E21" t="n">
-        <v>376.513405293816</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F21" t="n">
-        <v>229.978847320701</v>
+        <v>302.1435952757</v>
       </c>
       <c r="G21" t="n">
-        <v>93.24576819005659</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H21" t="n">
-        <v>49.81782892870198</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I21" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J21" t="n">
-        <v>234.0659274310207</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K21" t="n">
-        <v>583.0451988570708</v>
+        <v>475.7435727620241</v>
       </c>
       <c r="L21" t="n">
-        <v>871.0094820397333</v>
+        <v>763.7078559446867</v>
       </c>
       <c r="M21" t="n">
-        <v>1226.407086288405</v>
+        <v>1119.105460193358</v>
       </c>
       <c r="N21" t="n">
-        <v>1605.619652518709</v>
+        <v>1498.318026423663</v>
       </c>
       <c r="O21" t="n">
-        <v>1930.305270232466</v>
+        <v>1823.00364413742</v>
       </c>
       <c r="P21" t="n">
-        <v>2171.561036994176</v>
+        <v>2379.537551852667</v>
       </c>
       <c r="Q21" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R21" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S21" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T21" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U21" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V21" t="n">
-        <v>1697.202791960406</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W21" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X21" t="n">
-        <v>1235.113935026672</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y21" t="n">
-        <v>1027.353636261718</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>364.7207909862938</v>
+        <v>552.9070031411165</v>
       </c>
       <c r="C22" t="n">
-        <v>364.7207909862938</v>
+        <v>552.9070031411165</v>
       </c>
       <c r="D22" t="n">
-        <v>364.7207909862938</v>
+        <v>402.7903637287808</v>
       </c>
       <c r="E22" t="n">
         <v>364.7207909862938</v>
@@ -5901,25 +5901,25 @@
         <v>217.8308434883834</v>
       </c>
       <c r="G22" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H22" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I22" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J22" t="n">
-        <v>73.4472800547763</v>
+        <v>73.44728005477634</v>
       </c>
       <c r="K22" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L22" t="n">
-        <v>513.4770511394355</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M22" t="n">
-        <v>809.97986946425</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N22" t="n">
         <v>1104.867129907538</v>
@@ -5931,31 +5931,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q22" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R22" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S22" t="n">
-        <v>1308.3517434821</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T22" t="n">
-        <v>1308.3517434821</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U22" t="n">
-        <v>1019.231957811322</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="V22" t="n">
-        <v>874.9305401667846</v>
+        <v>842.3241731780771</v>
       </c>
       <c r="W22" t="n">
-        <v>585.5133701298239</v>
+        <v>552.9070031411165</v>
       </c>
       <c r="X22" t="n">
-        <v>585.5133701298239</v>
+        <v>552.9070031411165</v>
       </c>
       <c r="Y22" t="n">
-        <v>364.7207909862938</v>
+        <v>552.9070031411165</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1414.32401404735</v>
+        <v>1285.682762255313</v>
       </c>
       <c r="C23" t="n">
-        <v>1045.361497106938</v>
+        <v>916.7202453149016</v>
       </c>
       <c r="D23" t="n">
-        <v>1045.361497106938</v>
+        <v>916.7202453149016</v>
       </c>
       <c r="E23" t="n">
-        <v>659.5732445086937</v>
+        <v>530.9319927166573</v>
       </c>
       <c r="F23" t="n">
-        <v>248.5873397190862</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="G23" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="H23" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I23" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J23" t="n">
-        <v>182.6484035402486</v>
+        <v>189.753895820994</v>
       </c>
       <c r="K23" t="n">
-        <v>430.2582499382138</v>
+        <v>437.3637422189594</v>
       </c>
       <c r="L23" t="n">
-        <v>774.34192141318</v>
+        <v>781.4474136939259</v>
       </c>
       <c r="M23" t="n">
-        <v>1188.870741198923</v>
+        <v>1195.97623347967</v>
       </c>
       <c r="N23" t="n">
-        <v>1614.720879044172</v>
+        <v>1621.826371324918</v>
       </c>
       <c r="O23" t="n">
-        <v>2003.503827275789</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P23" t="n">
-        <v>2300.820077921114</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q23" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R23" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S23" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T23" t="n">
-        <v>2564.528944348363</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="U23" t="n">
-        <v>2564.528944348363</v>
+        <v>2062.421934295247</v>
       </c>
       <c r="V23" t="n">
-        <v>2564.528944348363</v>
+        <v>2062.421934295247</v>
       </c>
       <c r="W23" t="n">
-        <v>2564.528944348363</v>
+        <v>2062.421934295247</v>
       </c>
       <c r="X23" t="n">
-        <v>2191.063186087283</v>
+        <v>2062.421934295247</v>
       </c>
       <c r="Y23" t="n">
-        <v>1800.923854111471</v>
+        <v>1672.282602319435</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>932.7757971549145</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C24" t="n">
-        <v>758.3227678737875</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125361</v>
+        <v>609.3883582125356</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070805</v>
+        <v>450.1509032070801</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339656</v>
+        <v>303.6163452339651</v>
       </c>
       <c r="G24" t="n">
         <v>166.8832661033211</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915366</v>
       </c>
       <c r="I24" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J24" t="n">
-        <v>110.7085524022812</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K24" t="n">
-        <v>549.3810706752879</v>
+        <v>677.0688674499143</v>
       </c>
       <c r="L24" t="n">
-        <v>837.3453538579504</v>
+        <v>965.0331506325768</v>
       </c>
       <c r="M24" t="n">
-        <v>1192.742958106622</v>
+        <v>1320.430754881249</v>
       </c>
       <c r="N24" t="n">
-        <v>1571.955524336927</v>
+        <v>1699.643321111553</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.641142050684</v>
+        <v>2024.32893882531</v>
       </c>
       <c r="P24" t="n">
-        <v>2453.17504976593</v>
+        <v>2265.584705587019</v>
       </c>
       <c r="Q24" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R24" t="n">
         <v>2564.528944348363</v>
@@ -6104,7 +6104,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V24" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W24" t="n">
         <v>1516.602933145469</v>
@@ -6113,7 +6113,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y24" t="n">
-        <v>1100.991134174983</v>
+        <v>1100.991134174982</v>
       </c>
     </row>
     <row r="25">
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>388.2397763745556</v>
+        <v>369.4202328589844</v>
       </c>
       <c r="C25" t="n">
-        <v>219.3035934466487</v>
+        <v>369.4202328589844</v>
       </c>
       <c r="D25" t="n">
         <v>219.3035934466487</v>
@@ -6147,52 +6147,52 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J25" t="n">
-        <v>74.92003001304158</v>
+        <v>74.92003001304161</v>
       </c>
       <c r="K25" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L25" t="n">
-        <v>514.9498010977007</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M25" t="n">
-        <v>811.4526194225152</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N25" t="n">
-        <v>1106.339879865803</v>
+        <v>1106.339879865804</v>
       </c>
       <c r="O25" t="n">
-        <v>1362.699698256867</v>
+        <v>1362.699698256868</v>
       </c>
       <c r="P25" t="n">
         <v>1558.539128188696</v>
       </c>
       <c r="Q25" t="n">
-        <v>1610.693118163191</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="R25" t="n">
-        <v>1506.915933070317</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S25" t="n">
-        <v>1309.824493440365</v>
+        <v>1538.757471859604</v>
       </c>
       <c r="T25" t="n">
-        <v>1308.087541283303</v>
+        <v>1315.665550709419</v>
       </c>
       <c r="U25" t="n">
-        <v>1308.087541283303</v>
+        <v>1026.545765038641</v>
       </c>
       <c r="V25" t="n">
-        <v>1308.087541283303</v>
+        <v>771.8612768327542</v>
       </c>
       <c r="W25" t="n">
-        <v>1018.670371246343</v>
+        <v>771.8612768327542</v>
       </c>
       <c r="X25" t="n">
-        <v>790.6808203483255</v>
+        <v>771.8612768327542</v>
       </c>
       <c r="Y25" t="n">
-        <v>569.8882412047953</v>
+        <v>551.0686976892241</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1674.875891513795</v>
+        <v>881.2224698530254</v>
       </c>
       <c r="C26" t="n">
-        <v>1674.875891513795</v>
+        <v>881.2224698530254</v>
       </c>
       <c r="D26" t="n">
-        <v>1637.149490927736</v>
+        <v>522.9567712462749</v>
       </c>
       <c r="E26" t="n">
-        <v>1251.361238329491</v>
+        <v>137.1685186480307</v>
       </c>
       <c r="F26" t="n">
-        <v>840.3753335398837</v>
+        <v>137.1685186480307</v>
       </c>
       <c r="G26" t="n">
-        <v>424.6113948879072</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H26" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I26" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J26" t="n">
-        <v>182.6484035402486</v>
+        <v>254.8131514952467</v>
       </c>
       <c r="K26" t="n">
-        <v>502.422997893213</v>
+        <v>502.4229978932121</v>
       </c>
       <c r="L26" t="n">
-        <v>846.5066693681792</v>
+        <v>846.5066693681786</v>
       </c>
       <c r="M26" t="n">
-        <v>1261.035489153923</v>
+        <v>1261.035489153922</v>
       </c>
       <c r="N26" t="n">
         <v>1686.885626999171</v>
@@ -6256,22 +6256,22 @@
         <v>2438.480981750686</v>
       </c>
       <c r="T26" t="n">
-        <v>2438.480981750686</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="U26" t="n">
-        <v>2438.480981750686</v>
+        <v>1975.890447433488</v>
       </c>
       <c r="V26" t="n">
-        <v>2438.480981750686</v>
+        <v>1644.827560089917</v>
       </c>
       <c r="W26" t="n">
-        <v>2438.480981750686</v>
+        <v>1644.827560089917</v>
       </c>
       <c r="X26" t="n">
-        <v>2065.015223489606</v>
+        <v>1271.361801828837</v>
       </c>
       <c r="Y26" t="n">
-        <v>1674.875891513795</v>
+        <v>881.2224698530254</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>932.7757971549145</v>
+        <v>932.7757971549141</v>
       </c>
       <c r="C27" t="n">
-        <v>758.3227678737875</v>
+        <v>758.3227678737871</v>
       </c>
       <c r="D27" t="n">
-        <v>609.3883582125361</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070805</v>
+        <v>450.1509032070804</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6163452339656</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G27" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H27" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915346</v>
       </c>
       <c r="I27" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J27" t="n">
-        <v>235.538677389286</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K27" t="n">
-        <v>656.682696770335</v>
+        <v>415.2482828074615</v>
       </c>
       <c r="L27" t="n">
-        <v>944.6469799529975</v>
+        <v>703.2125659901241</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.044584201669</v>
+        <v>1252.512751564244</v>
       </c>
       <c r="N27" t="n">
-        <v>1679.257150431974</v>
+        <v>1887.233665290464</v>
       </c>
       <c r="O27" t="n">
-        <v>2003.942768145731</v>
+        <v>2211.919283004221</v>
       </c>
       <c r="P27" t="n">
-        <v>2245.19853490744</v>
+        <v>2453.17504976593</v>
       </c>
       <c r="Q27" t="n">
         <v>2564.528944348363</v>
@@ -6341,7 +6341,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V27" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W27" t="n">
         <v>1516.602933145469</v>
@@ -6350,7 +6350,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y27" t="n">
-        <v>1100.991134174983</v>
+        <v>1100.991134174982</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>537.2147269734576</v>
+        <v>201.407218299303</v>
       </c>
       <c r="C28" t="n">
-        <v>368.2785440455507</v>
+        <v>201.407218299303</v>
       </c>
       <c r="D28" t="n">
-        <v>368.2785440455507</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="E28" t="n">
-        <v>368.2785440455507</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F28" t="n">
-        <v>368.2785440455507</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G28" t="n">
-        <v>200.2655294858693</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H28" t="n">
         <v>51.29057888696726</v>
@@ -6384,52 +6384,52 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J28" t="n">
-        <v>74.92003001304158</v>
+        <v>74.92003001304161</v>
       </c>
       <c r="K28" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L28" t="n">
-        <v>514.9498010977007</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M28" t="n">
-        <v>811.4526194225152</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N28" t="n">
-        <v>1106.339879865803</v>
+        <v>1106.339879865804</v>
       </c>
       <c r="O28" t="n">
-        <v>1362.699698256867</v>
+        <v>1362.699698256868</v>
       </c>
       <c r="P28" t="n">
         <v>1558.539128188696</v>
       </c>
       <c r="Q28" t="n">
-        <v>1610.693118163191</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="R28" t="n">
-        <v>1610.693118163191</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S28" t="n">
-        <v>1610.693118163191</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.601197013007</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="U28" t="n">
-        <v>1302.108964359835</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="V28" t="n">
-        <v>1047.424476153948</v>
+        <v>1121.254983208051</v>
       </c>
       <c r="W28" t="n">
-        <v>758.0073061169877</v>
+        <v>831.8378131710901</v>
       </c>
       <c r="X28" t="n">
-        <v>758.0073061169877</v>
+        <v>603.8482622730728</v>
       </c>
       <c r="Y28" t="n">
-        <v>537.2147269734576</v>
+        <v>383.0556831295427</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>467.0545175389437</v>
+        <v>1217.027253215231</v>
       </c>
       <c r="C29" t="n">
-        <v>467.0545175389437</v>
+        <v>848.0647362748191</v>
       </c>
       <c r="D29" t="n">
-        <v>467.0545175389437</v>
+        <v>848.0647362748191</v>
       </c>
       <c r="E29" t="n">
-        <v>467.0545175389437</v>
+        <v>462.2764836765748</v>
       </c>
       <c r="F29" t="n">
-        <v>467.0545175389437</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G29" t="n">
         <v>51.29057888696726</v>
@@ -6463,13 +6463,13 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J29" t="n">
-        <v>189.7538958209951</v>
+        <v>189.753895820994</v>
       </c>
       <c r="K29" t="n">
-        <v>437.3637422189603</v>
+        <v>437.3637422189594</v>
       </c>
       <c r="L29" t="n">
-        <v>781.4474136939266</v>
+        <v>781.4474136939259</v>
       </c>
       <c r="M29" t="n">
         <v>1195.97623347967</v>
@@ -6493,22 +6493,22 @@
         <v>2564.528944348363</v>
       </c>
       <c r="T29" t="n">
-        <v>2355.524205837086</v>
+        <v>2367.232183516244</v>
       </c>
       <c r="U29" t="n">
-        <v>2101.938410031164</v>
+        <v>2367.232183516244</v>
       </c>
       <c r="V29" t="n">
-        <v>1770.875522687594</v>
+        <v>2367.232183516244</v>
       </c>
       <c r="W29" t="n">
-        <v>1418.10686741748</v>
+        <v>2367.232183516244</v>
       </c>
       <c r="X29" t="n">
-        <v>1044.6411091564</v>
+        <v>1993.766425255164</v>
       </c>
       <c r="Y29" t="n">
-        <v>654.5017771805881</v>
+        <v>1603.627093279352</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J30" t="n">
-        <v>110.7085524022812</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K30" t="n">
-        <v>552.2387424629094</v>
+        <v>656.6826967703346</v>
       </c>
       <c r="L30" t="n">
-        <v>840.2030256455719</v>
+        <v>944.6469799529972</v>
       </c>
       <c r="M30" t="n">
-        <v>1195.600629894243</v>
+        <v>1300.044584201669</v>
       </c>
       <c r="N30" t="n">
-        <v>1574.813196124548</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O30" t="n">
-        <v>1899.498813838305</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P30" t="n">
-        <v>2453.17504976593</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q30" t="n">
         <v>2564.528944348363</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>783.1710836614529</v>
+        <v>833.1594568671948</v>
       </c>
       <c r="C31" t="n">
-        <v>614.2349007335461</v>
+        <v>664.2232739392879</v>
       </c>
       <c r="D31" t="n">
-        <v>464.1182613212103</v>
+        <v>514.1066345269521</v>
       </c>
       <c r="E31" t="n">
-        <v>464.1182613212103</v>
+        <v>366.193540944559</v>
       </c>
       <c r="F31" t="n">
-        <v>464.1182613212103</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="G31" t="n">
-        <v>306.9191030947646</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H31" t="n">
-        <v>157.9441524958626</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I31" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J31" t="n">
-        <v>74.92003001304158</v>
+        <v>74.92003001304161</v>
       </c>
       <c r="K31" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L31" t="n">
-        <v>514.9498010977007</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M31" t="n">
-        <v>811.4526194225152</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N31" t="n">
-        <v>1106.339879865803</v>
+        <v>1106.339879865804</v>
       </c>
       <c r="O31" t="n">
-        <v>1362.699698256867</v>
+        <v>1362.699698256868</v>
       </c>
       <c r="P31" t="n">
         <v>1558.539128188696</v>
       </c>
       <c r="Q31" t="n">
-        <v>1610.693118163191</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="R31" t="n">
-        <v>1610.693118163191</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S31" t="n">
-        <v>1413.60167853324</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T31" t="n">
-        <v>1413.60167853324</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="U31" t="n">
-        <v>1413.60167853324</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="V31" t="n">
-        <v>1413.60167853324</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="W31" t="n">
-        <v>1413.60167853324</v>
+        <v>1281.941586908742</v>
       </c>
       <c r="X31" t="n">
-        <v>1185.612127635223</v>
+        <v>1053.952036010725</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.8195484916927</v>
+        <v>833.1594568671948</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1622.094373533546</v>
+        <v>1288.276051449673</v>
       </c>
       <c r="C32" t="n">
-        <v>1622.094373533546</v>
+        <v>919.3135345092612</v>
       </c>
       <c r="D32" t="n">
-        <v>1263.828674926796</v>
+        <v>919.3135345092612</v>
       </c>
       <c r="E32" t="n">
-        <v>878.0404223285514</v>
+        <v>919.3135345092612</v>
       </c>
       <c r="F32" t="n">
-        <v>467.0545175389437</v>
+        <v>508.3276297196537</v>
       </c>
       <c r="G32" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="H32" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I32" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J32" t="n">
-        <v>182.6484035402486</v>
+        <v>182.6484035402487</v>
       </c>
       <c r="K32" t="n">
-        <v>430.2582499382138</v>
+        <v>430.258249938214</v>
       </c>
       <c r="L32" t="n">
-        <v>774.34192141318</v>
+        <v>774.3419214131804</v>
       </c>
       <c r="M32" t="n">
-        <v>1188.870741198923</v>
+        <v>1188.870741198924</v>
       </c>
       <c r="N32" t="n">
-        <v>1614.720879044172</v>
+        <v>1614.720879044173</v>
       </c>
       <c r="O32" t="n">
         <v>2003.503827275789</v>
       </c>
       <c r="P32" t="n">
-        <v>2372.984825876113</v>
+        <v>2300.820077921115</v>
       </c>
       <c r="Q32" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R32" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S32" t="n">
-        <v>2548.761839452516</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T32" t="n">
-        <v>2339.757100941239</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="U32" t="n">
-        <v>2339.757100941239</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="V32" t="n">
-        <v>2008.694213597668</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="W32" t="n">
-        <v>2008.694213597668</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="X32" t="n">
-        <v>2008.694213597668</v>
+        <v>2065.015223489606</v>
       </c>
       <c r="Y32" t="n">
-        <v>2008.694213597668</v>
+        <v>1674.875891513795</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>932.7757971549141</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C33" t="n">
-        <v>758.3227678737871</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D33" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125356</v>
       </c>
       <c r="E33" t="n">
-        <v>450.1509032070804</v>
+        <v>450.1509032070801</v>
       </c>
       <c r="F33" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339651</v>
       </c>
       <c r="G33" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H33" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915366</v>
       </c>
       <c r="I33" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J33" t="n">
-        <v>192.7415585031277</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K33" t="n">
-        <v>634.2717485637559</v>
+        <v>415.2482828074615</v>
       </c>
       <c r="L33" t="n">
-        <v>922.2360317464183</v>
+        <v>703.2125659901241</v>
       </c>
       <c r="M33" t="n">
-        <v>1277.63363599509</v>
+        <v>1058.610170238796</v>
       </c>
       <c r="N33" t="n">
-        <v>1656.846202225395</v>
+        <v>1693.331083965016</v>
       </c>
       <c r="O33" t="n">
-        <v>1981.531819939152</v>
+        <v>2018.016701678773</v>
       </c>
       <c r="P33" t="n">
-        <v>2222.787586700861</v>
+        <v>2259.272468440482</v>
       </c>
       <c r="Q33" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R33" t="n">
         <v>2564.528944348363</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>710.1350602858057</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="C34" t="n">
-        <v>710.1350602858057</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="D34" t="n">
-        <v>710.1350602858057</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="E34" t="n">
-        <v>562.2219667034126</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F34" t="n">
-        <v>415.3320192055022</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G34" t="n">
-        <v>247.3190046458208</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H34" t="n">
-        <v>98.34405404691879</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I34" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J34" t="n">
-        <v>74.92003001304158</v>
+        <v>74.92003001304161</v>
       </c>
       <c r="K34" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L34" t="n">
-        <v>514.9498010977007</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M34" t="n">
-        <v>811.4526194225152</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N34" t="n">
-        <v>1106.339879865803</v>
+        <v>1106.339879865804</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.699698256867</v>
+        <v>1362.699698256868</v>
       </c>
       <c r="P34" t="n">
         <v>1558.539128188696</v>
       </c>
       <c r="Q34" t="n">
-        <v>1610.693118163191</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="R34" t="n">
-        <v>1610.693118163191</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S34" t="n">
-        <v>1413.60167853324</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T34" t="n">
-        <v>1413.60167853324</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="U34" t="n">
-        <v>1413.60167853324</v>
+        <v>901.3899717122778</v>
       </c>
       <c r="V34" t="n">
-        <v>1158.917190327353</v>
+        <v>789.4898789654753</v>
       </c>
       <c r="W34" t="n">
-        <v>1158.917190327353</v>
+        <v>500.0727089285147</v>
       </c>
       <c r="X34" t="n">
-        <v>930.9276394293358</v>
+        <v>272.0831580304974</v>
       </c>
       <c r="Y34" t="n">
-        <v>710.1350602858057</v>
+        <v>51.29057888696726</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1573.820201863716</v>
+        <v>1234.833370977037</v>
       </c>
       <c r="C35" t="n">
-        <v>1204.857684923304</v>
+        <v>1234.833370977037</v>
       </c>
       <c r="D35" t="n">
-        <v>846.5919863165539</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="E35" t="n">
-        <v>460.8037337183096</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F35" t="n">
-        <v>49.81782892870198</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G35" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H35" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I35" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J35" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799486</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L35" t="n">
-        <v>772.8691714549147</v>
+        <v>772.8691714549145</v>
       </c>
       <c r="M35" t="n">
         <v>1187.397991240658</v>
@@ -6952,10 +6952,10 @@
         <v>1613.248129085906</v>
       </c>
       <c r="O35" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P35" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q35" t="n">
         <v>2474.446703561746</v>
@@ -6967,22 +6967,22 @@
         <v>2364.843483837422</v>
       </c>
       <c r="T35" t="n">
-        <v>2364.843483837422</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="U35" t="n">
-        <v>2364.843483837422</v>
+        <v>1918.664913590721</v>
       </c>
       <c r="V35" t="n">
-        <v>2364.843483837422</v>
+        <v>1587.602026247151</v>
       </c>
       <c r="W35" t="n">
-        <v>2012.074828567308</v>
+        <v>1234.833370977037</v>
       </c>
       <c r="X35" t="n">
-        <v>1963.959533839528</v>
+        <v>1234.833370977037</v>
       </c>
       <c r="Y35" t="n">
-        <v>1573.820201863716</v>
+        <v>1234.833370977037</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>859.1382992416497</v>
+        <v>909.7854722244628</v>
       </c>
       <c r="C36" t="n">
-        <v>684.6852699605228</v>
+        <v>735.3324429433358</v>
       </c>
       <c r="D36" t="n">
-        <v>535.7508602992715</v>
+        <v>586.3980332820845</v>
       </c>
       <c r="E36" t="n">
-        <v>376.513405293816</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1435952757001</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G36" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H36" t="n">
-        <v>71.3354039008882</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I36" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J36" t="n">
-        <v>234.0659274310207</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K36" t="n">
-        <v>413.7755328491961</v>
+        <v>288.9454078621914</v>
       </c>
       <c r="L36" t="n">
-        <v>701.7398160318586</v>
+        <v>576.9096910448541</v>
       </c>
       <c r="M36" t="n">
-        <v>1057.13742028053</v>
+        <v>1193.405324037541</v>
       </c>
       <c r="N36" t="n">
-        <v>1436.349986510835</v>
+        <v>1809.900957030228</v>
       </c>
       <c r="O36" t="n">
-        <v>1761.035604224592</v>
+        <v>2138.281785090957</v>
       </c>
       <c r="P36" t="n">
-        <v>2171.561036994176</v>
+        <v>2379.537551852667</v>
       </c>
       <c r="Q36" t="n">
         <v>2490.891446435099</v>
@@ -7043,25 +7043,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S36" t="n">
-        <v>2354.581362957453</v>
+        <v>2405.228535940266</v>
       </c>
       <c r="T36" t="n">
-        <v>2160.447087779</v>
+        <v>2211.094260761814</v>
       </c>
       <c r="U36" t="n">
-        <v>1932.354900192149</v>
+        <v>1983.002073174962</v>
       </c>
       <c r="V36" t="n">
-        <v>1697.202791960406</v>
+        <v>1747.849964943219</v>
       </c>
       <c r="W36" t="n">
-        <v>1442.965435232205</v>
+        <v>1493.612608215017</v>
       </c>
       <c r="X36" t="n">
-        <v>1235.113935026672</v>
+        <v>1285.761108009485</v>
       </c>
       <c r="Y36" t="n">
-        <v>1027.353636261718</v>
+        <v>1078.000809244531</v>
       </c>
     </row>
     <row r="37">
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>663.6736923492481</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="C37" t="n">
-        <v>494.7375094213412</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="D37" t="n">
-        <v>344.6208700090054</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="E37" t="n">
-        <v>196.7077764266123</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F37" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G37" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H37" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I37" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J37" t="n">
-        <v>73.4472800547763</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K37" t="n">
         <v>242.1145636490678</v>
       </c>
       <c r="L37" t="n">
-        <v>513.4770511394355</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M37" t="n">
-        <v>809.97986946425</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N37" t="n">
         <v>1104.867129907538</v>
@@ -7116,31 +7116,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q37" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R37" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S37" t="n">
-        <v>1609.220368204926</v>
+        <v>1554.91332403406</v>
       </c>
       <c r="T37" t="n">
-        <v>1609.220368204926</v>
+        <v>1331.821402883875</v>
       </c>
       <c r="U37" t="n">
-        <v>1320.100582534148</v>
+        <v>1042.701617213097</v>
       </c>
       <c r="V37" t="n">
-        <v>1181.080413284226</v>
+        <v>788.0171290072101</v>
       </c>
       <c r="W37" t="n">
-        <v>891.6632432472654</v>
+        <v>498.5999589702494</v>
       </c>
       <c r="X37" t="n">
-        <v>663.6736923492481</v>
+        <v>270.6104080722321</v>
       </c>
       <c r="Y37" t="n">
-        <v>663.6736923492481</v>
+        <v>49.81782892870199</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1218.421406906539</v>
+        <v>1631.318441908942</v>
       </c>
       <c r="C38" t="n">
-        <v>849.4588899661269</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="D38" t="n">
-        <v>849.4588899661269</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E38" t="n">
-        <v>849.4588899661269</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F38" t="n">
-        <v>438.4729851765193</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G38" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H38" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I38" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J38" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L38" t="n">
-        <v>772.8691714549152</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M38" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N38" t="n">
         <v>1613.248129085907</v>
@@ -7201,25 +7201,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S38" t="n">
-        <v>2364.843483837422</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T38" t="n">
-        <v>2155.838745326145</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="U38" t="n">
-        <v>1902.252949520223</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="V38" t="n">
-        <v>1571.190062176653</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="W38" t="n">
-        <v>1218.421406906539</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="X38" t="n">
-        <v>1218.421406906539</v>
+        <v>2117.425688174019</v>
       </c>
       <c r="Y38" t="n">
-        <v>1218.421406906539</v>
+        <v>1727.286356198208</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>909.7854722244628</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C39" t="n">
-        <v>735.3324429433358</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D39" t="n">
-        <v>586.3980332820845</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E39" t="n">
-        <v>427.1605782766289</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F39" t="n">
-        <v>280.6260203035139</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8929411728695</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H39" t="n">
-        <v>49.81782892870198</v>
+        <v>71.33540390088821</v>
       </c>
       <c r="I39" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J39" t="n">
         <v>234.0659274310207</v>
       </c>
       <c r="K39" t="n">
-        <v>560.6342506504916</v>
+        <v>583.0451988570709</v>
       </c>
       <c r="L39" t="n">
-        <v>848.5985338331541</v>
+        <v>871.0094820397335</v>
       </c>
       <c r="M39" t="n">
-        <v>1203.996138081826</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N39" t="n">
-        <v>1583.20870431213</v>
+        <v>1605.61965251871</v>
       </c>
       <c r="O39" t="n">
-        <v>1907.894322025887</v>
+        <v>1930.305270232467</v>
       </c>
       <c r="P39" t="n">
-        <v>2149.150088787596</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q39" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R39" t="n">
         <v>2490.891446435099</v>
       </c>
       <c r="S39" t="n">
-        <v>2354.581362957453</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T39" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U39" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V39" t="n">
-        <v>1697.202791960406</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W39" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X39" t="n">
-        <v>1285.761108009485</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y39" t="n">
-        <v>1078.000809244531</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="40">
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>512.6338845686869</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="C40" t="n">
-        <v>512.6338845686869</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="D40" t="n">
-        <v>512.6338845686869</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="E40" t="n">
-        <v>364.7207909862938</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F40" t="n">
-        <v>217.8308434883834</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G40" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H40" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I40" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J40" t="n">
-        <v>73.4472800547763</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K40" t="n">
         <v>242.1145636490678</v>
       </c>
       <c r="L40" t="n">
-        <v>513.4770511394355</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M40" t="n">
-        <v>809.97986946425</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N40" t="n">
         <v>1104.867129907538</v>
@@ -7353,31 +7353,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q40" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R40" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S40" t="n">
-        <v>1609.220368204926</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T40" t="n">
-        <v>1386.128447054742</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U40" t="n">
-        <v>1386.128447054742</v>
+        <v>899.9172217540125</v>
       </c>
       <c r="V40" t="n">
-        <v>1131.443958848855</v>
+        <v>645.2327335481257</v>
       </c>
       <c r="W40" t="n">
-        <v>842.0267888118942</v>
+        <v>355.8155635111651</v>
       </c>
       <c r="X40" t="n">
-        <v>842.0267888118942</v>
+        <v>127.8260126131477</v>
       </c>
       <c r="Y40" t="n">
-        <v>694.2823493989266</v>
+        <v>49.81782892870199</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>458.355808581336</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="C41" t="n">
-        <v>89.3932916409243</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="D41" t="n">
-        <v>49.81782892870196</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E41" t="n">
-        <v>49.81782892870196</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F41" t="n">
-        <v>49.81782892870196</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G41" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H41" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I41" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J41" t="n">
-        <v>181.1756535819832</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7854999799484</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L41" t="n">
-        <v>772.8691714549147</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M41" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N41" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O41" t="n">
-        <v>2002.031077317522</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P41" t="n">
-        <v>2299.347327962847</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q41" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R41" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S41" t="n">
-        <v>2364.843483837421</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T41" t="n">
-        <v>2155.838745326144</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="U41" t="n">
-        <v>1902.252949520223</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="V41" t="n">
-        <v>1571.190062176652</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="W41" t="n">
-        <v>1218.421406906538</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="X41" t="n">
-        <v>844.9556486454578</v>
+        <v>2039.095097008464</v>
       </c>
       <c r="Y41" t="n">
-        <v>844.9556486454578</v>
+        <v>1648.955765032652</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>607.9156082542706</v>
       </c>
       <c r="E42" t="n">
-        <v>448.6781532488151</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F42" t="n">
         <v>302.1435952757001</v>
@@ -7484,46 +7484,46 @@
         <v>165.4105161450557</v>
       </c>
       <c r="H42" t="n">
-        <v>71.3354039008882</v>
+        <v>71.33540390088821</v>
       </c>
       <c r="I42" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J42" t="n">
         <v>234.0659274310207</v>
       </c>
       <c r="K42" t="n">
-        <v>560.6342506504908</v>
+        <v>560.6342506504917</v>
       </c>
       <c r="L42" t="n">
-        <v>848.5985338331533</v>
+        <v>848.5985338331543</v>
       </c>
       <c r="M42" t="n">
-        <v>1203.996138081825</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N42" t="n">
-        <v>1583.208704312129</v>
+        <v>1583.208704312131</v>
       </c>
       <c r="O42" t="n">
-        <v>1907.894322025886</v>
+        <v>1907.894322025888</v>
       </c>
       <c r="P42" t="n">
-        <v>2149.150088787595</v>
+        <v>2149.150088787597</v>
       </c>
       <c r="Q42" t="n">
-        <v>2468.480498228519</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R42" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957452</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T42" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.354900192148</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V42" t="n">
         <v>1769.367539915405</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>609.7827549824983</v>
+        <v>493.5958206079075</v>
       </c>
       <c r="C43" t="n">
-        <v>609.7827549824983</v>
+        <v>493.5958206079075</v>
       </c>
       <c r="D43" t="n">
-        <v>459.6661155701626</v>
+        <v>493.5958206079075</v>
       </c>
       <c r="E43" t="n">
-        <v>311.7530219877694</v>
+        <v>345.6827270255144</v>
       </c>
       <c r="F43" t="n">
-        <v>164.8630744898591</v>
+        <v>198.792779527604</v>
       </c>
       <c r="G43" t="n">
-        <v>49.81782892870196</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H43" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I43" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J43" t="n">
-        <v>73.44728005477626</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K43" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L43" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M43" t="n">
-        <v>809.9798694642498</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N43" t="n">
         <v>1104.867129907538</v>
@@ -7587,34 +7587,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P43" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q43" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R43" t="n">
-        <v>1505.443183112051</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S43" t="n">
-        <v>1308.3517434821</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T43" t="n">
-        <v>1085.259822331915</v>
+        <v>1326.817264521533</v>
       </c>
       <c r="U43" t="n">
-        <v>1085.259822331915</v>
+        <v>1037.697478850755</v>
       </c>
       <c r="V43" t="n">
-        <v>830.5753341260285</v>
+        <v>783.0129906448681</v>
       </c>
       <c r="W43" t="n">
-        <v>830.5753341260285</v>
+        <v>493.5958206079075</v>
       </c>
       <c r="X43" t="n">
-        <v>830.5753341260285</v>
+        <v>493.5958206079075</v>
       </c>
       <c r="Y43" t="n">
-        <v>609.7827549824983</v>
+        <v>493.5958206079075</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>354.4831358895594</v>
+        <v>1689.277132615363</v>
       </c>
       <c r="C44" t="n">
-        <v>354.4831358895594</v>
+        <v>1689.277132615363</v>
       </c>
       <c r="D44" t="n">
-        <v>354.4831358895594</v>
+        <v>1331.011434008613</v>
       </c>
       <c r="E44" t="n">
-        <v>354.4831358895594</v>
+        <v>945.2231814103684</v>
       </c>
       <c r="F44" t="n">
-        <v>354.4831358895594</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="G44" t="n">
-        <v>354.4831358895594</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H44" t="n">
-        <v>49.81782892870196</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I44" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870192</v>
       </c>
       <c r="J44" t="n">
-        <v>181.1756535819832</v>
+        <v>181.1756535819803</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7854999799484</v>
+        <v>428.7854999799457</v>
       </c>
       <c r="L44" t="n">
-        <v>772.869171454915</v>
+        <v>772.869171454912</v>
       </c>
       <c r="M44" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240656</v>
       </c>
       <c r="N44" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085904</v>
       </c>
       <c r="O44" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317521</v>
       </c>
       <c r="P44" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962846</v>
       </c>
       <c r="Q44" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561743</v>
       </c>
       <c r="R44" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435096</v>
       </c>
       <c r="S44" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435096</v>
       </c>
       <c r="T44" t="n">
-        <v>2155.838745326144</v>
+        <v>2490.891446435096</v>
       </c>
       <c r="U44" t="n">
-        <v>1902.252949520223</v>
+        <v>2490.891446435096</v>
       </c>
       <c r="V44" t="n">
-        <v>1571.190062176652</v>
+        <v>2490.891446435096</v>
       </c>
       <c r="W44" t="n">
-        <v>1218.421406906538</v>
+        <v>2490.891446435096</v>
       </c>
       <c r="X44" t="n">
-        <v>844.9556486454578</v>
+        <v>2466.016304655297</v>
       </c>
       <c r="Y44" t="n">
-        <v>454.8163166696461</v>
+        <v>2075.876972679485</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>859.1382992416488</v>
+        <v>859.138299241647</v>
       </c>
       <c r="C45" t="n">
-        <v>684.6852699605219</v>
+        <v>684.68526996052</v>
       </c>
       <c r="D45" t="n">
-        <v>535.7508602992706</v>
+        <v>535.7508602992688</v>
       </c>
       <c r="E45" t="n">
-        <v>376.5134052938151</v>
+        <v>376.5134052938133</v>
       </c>
       <c r="F45" t="n">
-        <v>229.9788473207001</v>
+        <v>229.9788473206982</v>
       </c>
       <c r="G45" t="n">
-        <v>93.24576819005568</v>
+        <v>93.24576819005387</v>
       </c>
       <c r="H45" t="n">
-        <v>71.3354039008882</v>
+        <v>71.33540390088814</v>
       </c>
       <c r="I45" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870192</v>
       </c>
       <c r="J45" t="n">
         <v>234.0659274310207</v>
       </c>
       <c r="K45" t="n">
-        <v>583.04519885707</v>
+        <v>583.0451988570677</v>
       </c>
       <c r="L45" t="n">
-        <v>871.0094820397325</v>
+        <v>871.0094820397303</v>
       </c>
       <c r="M45" t="n">
-        <v>1226.407086288404</v>
+        <v>1226.407086288402</v>
       </c>
       <c r="N45" t="n">
-        <v>1605.619652518709</v>
+        <v>1605.619652518707</v>
       </c>
       <c r="O45" t="n">
-        <v>1930.305270232466</v>
+        <v>1930.305270232464</v>
       </c>
       <c r="P45" t="n">
-        <v>2171.561036994175</v>
+        <v>2171.561036994173</v>
       </c>
       <c r="Q45" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435096</v>
       </c>
       <c r="R45" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435096</v>
       </c>
       <c r="S45" t="n">
-        <v>2354.581362957452</v>
+        <v>2354.58136295745</v>
       </c>
       <c r="T45" t="n">
-        <v>2160.447087779</v>
+        <v>2160.447087778998</v>
       </c>
       <c r="U45" t="n">
-        <v>1932.354900192148</v>
+        <v>1932.354900192146</v>
       </c>
       <c r="V45" t="n">
-        <v>1697.202791960405</v>
+        <v>1697.202791960403</v>
       </c>
       <c r="W45" t="n">
-        <v>1442.965435232204</v>
+        <v>1442.965435232202</v>
       </c>
       <c r="X45" t="n">
-        <v>1235.113935026671</v>
+        <v>1235.113935026669</v>
       </c>
       <c r="Y45" t="n">
-        <v>1027.353636261717</v>
+        <v>1027.353636261715</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1030.683412497187</v>
+        <v>127.8260126131475</v>
       </c>
       <c r="C46" t="n">
-        <v>861.7472295692801</v>
+        <v>127.8260126131475</v>
       </c>
       <c r="D46" t="n">
-        <v>711.6305901569443</v>
+        <v>127.8260126131475</v>
       </c>
       <c r="E46" t="n">
-        <v>620.3493151940911</v>
+        <v>127.8260126131475</v>
       </c>
       <c r="F46" t="n">
-        <v>473.4593676961807</v>
+        <v>49.81782892870192</v>
       </c>
       <c r="G46" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870192</v>
       </c>
       <c r="H46" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870192</v>
       </c>
       <c r="I46" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870192</v>
       </c>
       <c r="J46" t="n">
         <v>73.44728005477626</v>
@@ -7812,10 +7812,10 @@
         <v>242.1145636490677</v>
       </c>
       <c r="L46" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M46" t="n">
-        <v>809.9798694642498</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N46" t="n">
         <v>1104.867129907538</v>
@@ -7824,7 +7824,7 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P46" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q46" t="n">
         <v>1609.220368204926</v>
@@ -7833,25 +7833,25 @@
         <v>1609.220368204926</v>
       </c>
       <c r="S46" t="n">
-        <v>1609.220368204926</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T46" t="n">
-        <v>1609.220368204926</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U46" t="n">
-        <v>1320.100582534148</v>
+        <v>899.9172217540123</v>
       </c>
       <c r="V46" t="n">
-        <v>1320.100582534148</v>
+        <v>645.2327335481255</v>
       </c>
       <c r="W46" t="n">
-        <v>1030.683412497187</v>
+        <v>355.8155635111648</v>
       </c>
       <c r="X46" t="n">
-        <v>1030.683412497187</v>
+        <v>127.8260126131475</v>
       </c>
       <c r="Y46" t="n">
-        <v>1030.683412497187</v>
+        <v>127.8260126131475</v>
       </c>
     </row>
   </sheetData>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>148.3421391932283</v>
+        <v>170.9794606140155</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053383</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>32.60525894184555</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>170.9794606140144</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>148.3421391932279</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>170.9794606140144</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>170.9794606140149</v>
+        <v>188.685015050336</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.88434839053382</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>7.177264930045851</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>72.89368480302923</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>261.5786998533649</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>166.847874719527</v>
       </c>
       <c r="R24" t="n">
-        <v>22.88434839053382</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>72.89368480302832</v>
       </c>
       <c r="K26" t="n">
-        <v>72.89368480302943</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>243.8731454170441</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>195.8611932580289</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>258.0892398948637</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>22.88434839053382</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>7.177264930046988</v>
+        <v>7.177264930045851</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>243.8731454170436</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>315.5762314807236</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>22.88434839053382</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>72.89368480302932</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>7.177264930045709</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>82.86162232408731</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>258.0892398948637</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>195.8611932580286</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,22 +10673,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>263.7353825697126</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>239.6798654165477</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>3.732535704012207</v>
       </c>
       <c r="P36" t="n">
-        <v>170.979460614015</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>22.88434839053382</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>148.3421391932279</v>
+        <v>170.9794606140149</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>148.3421391932271</v>
+        <v>148.3421391932279</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>170.9794606140142</v>
+        <v>170.9794606140117</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>22.88434839053383</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>46.56914487489661</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
-        <v>241.6199473531945</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23390,10 +23390,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>71.44310047544862</v>
       </c>
       <c r="U12" t="n">
-        <v>71.44310047544823</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>91.6570742937737</v>
       </c>
       <c r="G13" t="n">
         <v>166.3328844140846</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>102.739413241946</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T13" t="n">
-        <v>141.3565515044936</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
-        <v>44.1506693479881</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>326.4714275180918</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>71.44310047544825</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>71.44310047544909</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.90586136640243</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>127.0928348497144</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I16" t="n">
         <v>105.5870378728063</v>
@@ -23703,10 +23703,10 @@
         <v>102.739413241946</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>83.32501042276994</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T17" t="n">
         <v>206.9146911261644</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>100.6315056432605</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23816,7 +23816,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>71.44310047544916</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>50.14070125298475</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>23.04397914977156</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>144.779740092998</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>42.78198881033904</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I20" t="n">
-        <v>67.96895394968166</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>347.465319507369</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>50.14070125298476</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>71.44310047544816</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>108.745085631507</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>109.2792398557359</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>216.282506041659</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0499378478622</v>
+        <v>85.66617199314126</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>123.9042353930995</v>
       </c>
       <c r="T25" t="n">
-        <v>219.1414193031915</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24448,22 +24448,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>317.3339050404845</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>326.5871389020039</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
         <v>105.5870378728063</v>
@@ -24651,22 +24651,22 @@
         <v>102.739413241946</v>
       </c>
       <c r="S28" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>201.5912774874305</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>183.5754168905729</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>197.1610546182527</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
-        <v>67.96895394968166</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,16 +24733,16 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>11.59089790236692</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>10.70571776990334</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>156.1795076283376</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>27.10857289077887</v>
       </c>
       <c r="H32" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I32" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1780491248113</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U32" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I34" t="n">
-        <v>59.00409746445434</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>141.3565515044936</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25156,25 +25156,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I35" t="n">
-        <v>67.96895394968166</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0499378478622</v>
+        <v>16.24784442979262</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>322.0969588979667</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25244,7 +25244,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>71.44310047544913</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>50.14070125298436</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.3328844140846</v>
@@ -25362,16 +25362,16 @@
         <v>102.739413241946</v>
       </c>
       <c r="S37" t="n">
-        <v>195.1205252336517</v>
+        <v>141.3565515044935</v>
       </c>
       <c r="T37" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>114.5076757664052</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>287.7256065171077</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>26.83769458011756</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I38" t="n">
-        <v>67.96895394968166</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>71.44310047544863</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>50.14070125298474</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
         <v>147.485201092913</v>
@@ -25599,13 +25599,13 @@
         <v>102.739413241946</v>
       </c>
       <c r="S40" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.31765833325687</v>
+        <v>141.3565515044935</v>
       </c>
     </row>
     <row r="41">
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>315.5033335355828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
-        <v>67.96895394968166</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>254.1548888439644</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25760,13 +25760,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>71.44310047544862</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>71.44310047545</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>52.43809130853904</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H43" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>105.5870378728063</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>136.4024545257751</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>283.4039926911947</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I44" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>345.1047103164677</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>71.44310047545002</v>
+        <v>71.44310047545176</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>56.0655004333445</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>68.19294617533012</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>102.7394132419461</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S46" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>635153.3307958466</v>
+        <v>635153.3307958468</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>635153.3307958465</v>
+        <v>635153.3307958466</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>647422.1765900402</v>
+        <v>647422.17659004</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>635153.3307958466</v>
+        <v>635153.3307958468</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>635153.3307958466</v>
+        <v>635153.3307958468</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>635153.3307958466</v>
+        <v>635153.3307958468</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>635153.3307958466</v>
+        <v>635153.3307958463</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593975.3455698525</v>
+        <v>593975.3455698527</v>
       </c>
       <c r="C2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.3455698527</v>
       </c>
       <c r="D2" t="n">
         <v>593975.3455698527</v>
@@ -26325,37 +26325,37 @@
         <v>436708.6382972321</v>
       </c>
       <c r="F2" t="n">
+        <v>436708.638297232</v>
+      </c>
+      <c r="G2" t="n">
         <v>436708.6382972322</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>436708.6382972319</v>
       </c>
-      <c r="H2" t="n">
-        <v>436708.638297232</v>
-      </c>
       <c r="I2" t="n">
-        <v>443027.7805342856</v>
+        <v>443027.7805342857</v>
       </c>
       <c r="J2" t="n">
-        <v>443027.7805342855</v>
+        <v>443027.7805342854</v>
       </c>
       <c r="K2" t="n">
-        <v>443027.7805342855</v>
+        <v>443027.7805342858</v>
       </c>
       <c r="L2" t="n">
         <v>443027.7805342856</v>
       </c>
       <c r="M2" t="n">
-        <v>436708.6382972319</v>
+        <v>436708.638297232</v>
       </c>
       <c r="N2" t="n">
-        <v>436708.6382972319</v>
+        <v>436708.6382972321</v>
       </c>
       <c r="O2" t="n">
-        <v>436708.6382972319</v>
+        <v>436708.638297232</v>
       </c>
       <c r="P2" t="n">
-        <v>436708.6382972319</v>
+        <v>436708.6382972318</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>924651.579376124</v>
+        <v>924651.5793761237</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.062368439510465e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648287</v>
+        <v>4895.439270648227</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>18245.60406141439</v>
       </c>
       <c r="F4" t="n">
+        <v>18245.60406141437</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18245.60406141437</v>
+      </c>
+      <c r="H4" t="n">
         <v>18245.60406141439</v>
       </c>
-      <c r="G4" t="n">
-        <v>18245.60406141438</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18245.60406141438</v>
-      </c>
       <c r="I4" t="n">
-        <v>21593.82968547192</v>
+        <v>21593.82968547188</v>
       </c>
       <c r="J4" t="n">
-        <v>21593.82968547193</v>
+        <v>21593.82968547188</v>
       </c>
       <c r="K4" t="n">
-        <v>21593.82968547193</v>
+        <v>21593.82968547189</v>
       </c>
       <c r="L4" t="n">
-        <v>21593.82968547192</v>
+        <v>21593.82968547187</v>
       </c>
       <c r="M4" t="n">
-        <v>18245.60406141438</v>
+        <v>18245.60406141437</v>
       </c>
       <c r="N4" t="n">
         <v>18245.60406141438</v>
       </c>
       <c r="O4" t="n">
-        <v>18245.60406141437</v>
+        <v>18245.60406141438</v>
       </c>
       <c r="P4" t="n">
-        <v>18245.60406141437</v>
+        <v>18245.60406141433</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57906.41050425674</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="F5" t="n">
-        <v>57906.41050425674</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="G5" t="n">
         <v>57906.41050425672</v>
       </c>
       <c r="H5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="I5" t="n">
         <v>59025.70047253834</v>
@@ -26502,16 +26502,16 @@
         <v>59025.70047253834</v>
       </c>
       <c r="M5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425673</v>
       </c>
       <c r="N5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425673</v>
       </c>
       <c r="O5" t="n">
-        <v>57906.41050425671</v>
+        <v>57906.41050425673</v>
       </c>
       <c r="P5" t="n">
-        <v>57906.41050425671</v>
+        <v>57906.41050425668</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>134780.4706250679</v>
+        <v>134820.1928258811</v>
       </c>
       <c r="C6" t="n">
-        <v>134780.4706250679</v>
+        <v>134820.1928258811</v>
       </c>
       <c r="D6" t="n">
-        <v>134780.4706250681</v>
+        <v>134820.1928258811</v>
       </c>
       <c r="E6" t="n">
-        <v>-569562.0813291965</v>
+        <v>-564641.6682130261</v>
       </c>
       <c r="F6" t="n">
-        <v>355089.4980469275</v>
+        <v>360009.9111630976</v>
       </c>
       <c r="G6" t="n">
-        <v>355089.4980469272</v>
+        <v>360009.9111630977</v>
       </c>
       <c r="H6" t="n">
-        <v>355089.4980469273</v>
+        <v>360009.9111630972</v>
       </c>
       <c r="I6" t="n">
-        <v>352263.5868774435</v>
+        <v>356987.8886828089</v>
       </c>
       <c r="J6" t="n">
-        <v>357159.0261480917</v>
+        <v>361883.3279534568</v>
       </c>
       <c r="K6" t="n">
-        <v>357159.0261480917</v>
+        <v>361883.3279534572</v>
       </c>
       <c r="L6" t="n">
-        <v>357159.0261480919</v>
+        <v>361883.327953457</v>
       </c>
       <c r="M6" t="n">
-        <v>204492.1598000683</v>
+        <v>209412.5729162387</v>
       </c>
       <c r="N6" t="n">
-        <v>355089.4980469273</v>
+        <v>360009.9111630977</v>
       </c>
       <c r="O6" t="n">
-        <v>355089.4980469273</v>
+        <v>360009.9111630976</v>
       </c>
       <c r="P6" t="n">
-        <v>355089.4980469273</v>
+        <v>360009.9111630975</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074871</v>
       </c>
       <c r="F3" t="n">
         <v>919.4890146074873</v>
       </c>
       <c r="G3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="H3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="I3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="J3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="K3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="L3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="M3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="N3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="O3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="P3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.4890146074873</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="F4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="G4" t="n">
         <v>622.7228616087747</v>
       </c>
       <c r="H4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="I4" t="n">
         <v>641.1322360870907</v>
@@ -26822,16 +26822,16 @@
         <v>641.1322360870907</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="N4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="O4" t="n">
-        <v>622.7228616087745</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="P4" t="n">
-        <v>622.7228616087745</v>
+        <v>622.722861608774</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074871</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27029,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>7.643808914863719e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831607</v>
+        <v>18.40937447831584</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>7.643808914863719e-13</v>
       </c>
     </row>
   </sheetData>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678337</v>
       </c>
       <c r="H11" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451828</v>
       </c>
       <c r="I11" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J11" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K11" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L11" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M11" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088318</v>
       </c>
       <c r="N11" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857305</v>
       </c>
       <c r="O11" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P11" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q11" t="n">
-        <v>399.1737460349519</v>
+        <v>399.1737460349518</v>
       </c>
       <c r="R11" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S11" t="n">
-        <v>84.23258661454521</v>
+        <v>84.2325866145452</v>
       </c>
       <c r="T11" t="n">
         <v>16.18115843796693</v>
       </c>
       <c r="U11" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H12" t="n">
         <v>19.10108311477063</v>
       </c>
       <c r="I12" t="n">
-        <v>68.09423362895072</v>
+        <v>68.0942336289507</v>
       </c>
       <c r="J12" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K12" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321118</v>
       </c>
       <c r="L12" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M12" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N12" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O12" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623807</v>
       </c>
       <c r="P12" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130262</v>
       </c>
       <c r="Q12" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R12" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S12" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096892</v>
       </c>
       <c r="T12" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U12" t="n">
         <v>0.1301163699916256</v>
@@ -31931,7 +31931,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N13" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O13" t="n">
         <v>234.3641835920855</v>
@@ -31940,19 +31940,19 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.8428412057306</v>
+        <v>138.8428412057305</v>
       </c>
       <c r="R13" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522343</v>
       </c>
       <c r="S13" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332052</v>
       </c>
       <c r="T13" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598668</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H17" t="n">
         <v>37.85614822451829</v>
       </c>
       <c r="I17" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J17" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K17" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L17" t="n">
-        <v>583.3256790861147</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M17" t="n">
-        <v>649.0622128088319</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N17" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O17" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P17" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q17" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R17" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S17" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T17" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H18" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I18" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J18" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K18" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L18" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M18" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N18" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O18" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P18" t="n">
         <v>377.6671011130263</v>
       </c>
       <c r="Q18" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R18" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S18" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T18" t="n">
-        <v>7.971796268153589</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U18" t="n">
         <v>0.1301163699916256</v>
@@ -32390,7 +32390,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I19" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J19" t="n">
         <v>117.2273125672529</v>
@@ -32399,34 +32399,34 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L19" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M19" t="n">
         <v>259.9139193258508</v>
       </c>
       <c r="N19" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O19" t="n">
         <v>234.3641835920855</v>
       </c>
       <c r="P19" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q19" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R19" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S19" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T19" t="n">
-        <v>7.084587489598669</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H20" t="n">
         <v>37.85614822451829</v>
       </c>
       <c r="I20" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J20" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K20" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L20" t="n">
-        <v>583.3256790861147</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M20" t="n">
-        <v>649.0622128088319</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N20" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O20" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P20" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q20" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R20" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S20" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T20" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H21" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I21" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J21" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K21" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L21" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M21" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N21" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O21" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P21" t="n">
         <v>377.6671011130263</v>
       </c>
       <c r="Q21" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R21" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S21" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T21" t="n">
-        <v>7.971796268153589</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U21" t="n">
         <v>0.1301163699916256</v>
@@ -32627,7 +32627,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I22" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J22" t="n">
         <v>117.2273125672529</v>
@@ -32636,34 +32636,34 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L22" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M22" t="n">
         <v>259.9139193258508</v>
       </c>
       <c r="N22" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O22" t="n">
         <v>234.3641835920855</v>
       </c>
       <c r="P22" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q22" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R22" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S22" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T22" t="n">
-        <v>7.084587489598669</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H23" t="n">
         <v>37.85614822451829</v>
       </c>
       <c r="I23" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J23" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K23" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L23" t="n">
-        <v>583.3256790861147</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M23" t="n">
-        <v>649.0622128088319</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N23" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O23" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P23" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q23" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R23" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S23" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T23" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H24" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I24" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J24" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K24" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L24" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M24" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N24" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O24" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P24" t="n">
         <v>377.6671011130263</v>
       </c>
       <c r="Q24" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R24" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S24" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T24" t="n">
-        <v>7.971796268153589</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U24" t="n">
         <v>0.1301163699916256</v>
@@ -32864,7 +32864,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I25" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J25" t="n">
         <v>117.2273125672529</v>
@@ -32873,34 +32873,34 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L25" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M25" t="n">
         <v>259.9139193258508</v>
       </c>
       <c r="N25" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O25" t="n">
         <v>234.3641835920855</v>
       </c>
       <c r="P25" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q25" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R25" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S25" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T25" t="n">
-        <v>7.084587489598669</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H26" t="n">
         <v>37.85614822451829</v>
       </c>
       <c r="I26" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J26" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K26" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L26" t="n">
-        <v>583.3256790861147</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M26" t="n">
-        <v>649.0622128088319</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N26" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O26" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P26" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q26" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R26" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S26" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T26" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H27" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I27" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J27" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K27" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L27" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M27" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N27" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O27" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P27" t="n">
         <v>377.6671011130263</v>
       </c>
       <c r="Q27" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R27" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S27" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T27" t="n">
-        <v>7.971796268153589</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U27" t="n">
         <v>0.1301163699916256</v>
@@ -33101,7 +33101,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I28" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J28" t="n">
         <v>117.2273125672529</v>
@@ -33110,34 +33110,34 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L28" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M28" t="n">
         <v>259.9139193258508</v>
       </c>
       <c r="N28" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O28" t="n">
         <v>234.3641835920855</v>
       </c>
       <c r="P28" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q28" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R28" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S28" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T28" t="n">
-        <v>7.084587489598669</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H29" t="n">
         <v>37.85614822451829</v>
       </c>
       <c r="I29" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J29" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K29" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L29" t="n">
-        <v>583.3256790861147</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M29" t="n">
-        <v>649.0622128088319</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N29" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O29" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P29" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q29" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R29" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S29" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T29" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H30" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I30" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J30" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K30" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L30" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M30" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N30" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O30" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P30" t="n">
         <v>377.6671011130263</v>
       </c>
       <c r="Q30" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R30" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S30" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T30" t="n">
-        <v>7.971796268153589</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U30" t="n">
         <v>0.1301163699916256</v>
@@ -33338,7 +33338,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I31" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J31" t="n">
         <v>117.2273125672529</v>
@@ -33347,34 +33347,34 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L31" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M31" t="n">
         <v>259.9139193258508</v>
       </c>
       <c r="N31" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O31" t="n">
         <v>234.3641835920855</v>
       </c>
       <c r="P31" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q31" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R31" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S31" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T31" t="n">
-        <v>7.084587489598669</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H32" t="n">
         <v>37.85614822451829</v>
       </c>
       <c r="I32" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J32" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K32" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L32" t="n">
-        <v>583.3256790861147</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M32" t="n">
-        <v>649.0622128088319</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N32" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O32" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P32" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q32" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R32" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S32" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T32" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H33" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I33" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J33" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K33" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L33" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M33" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N33" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O33" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P33" t="n">
         <v>377.6671011130263</v>
       </c>
       <c r="Q33" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R33" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S33" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T33" t="n">
-        <v>7.971796268153589</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U33" t="n">
         <v>0.1301163699916256</v>
@@ -33575,7 +33575,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I34" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J34" t="n">
         <v>117.2273125672529</v>
@@ -33584,34 +33584,34 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L34" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M34" t="n">
         <v>259.9139193258508</v>
       </c>
       <c r="N34" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O34" t="n">
         <v>234.3641835920855</v>
       </c>
       <c r="P34" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q34" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R34" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S34" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T34" t="n">
-        <v>7.084587489598669</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,28 +33654,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I35" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J35" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K35" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L35" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M35" t="n">
-        <v>649.0622128088319</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N35" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O35" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P35" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q35" t="n">
         <v>399.1737460349519</v>
@@ -33690,7 +33690,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H36" t="n">
         <v>19.10108311477063</v>
@@ -33736,19 +33736,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J36" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K36" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L36" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M36" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N36" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O36" t="n">
         <v>470.5615148623808</v>
@@ -33757,16 +33757,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q36" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R36" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S36" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T36" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U36" t="n">
         <v>0.1301163699916256</v>
@@ -33827,7 +33827,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N37" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O37" t="n">
         <v>234.3641835920855</v>
@@ -33839,16 +33839,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R37" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S37" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T37" t="n">
-        <v>7.084587489598669</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,28 +33891,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I38" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J38" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K38" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L38" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M38" t="n">
-        <v>649.0622128088319</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N38" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O38" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P38" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q38" t="n">
         <v>399.1737460349519</v>
@@ -33927,7 +33927,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H39" t="n">
         <v>19.10108311477063</v>
@@ -33973,19 +33973,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J39" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K39" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L39" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M39" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N39" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O39" t="n">
         <v>470.5615148623808</v>
@@ -33994,16 +33994,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q39" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R39" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S39" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T39" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U39" t="n">
         <v>0.1301163699916256</v>
@@ -34064,7 +34064,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N40" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O40" t="n">
         <v>234.3641835920855</v>
@@ -34076,16 +34076,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R40" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S40" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T40" t="n">
-        <v>7.084587489598669</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H41" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I41" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J41" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K41" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L41" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M41" t="n">
-        <v>649.0622128088318</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N41" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O41" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P41" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q41" t="n">
-        <v>399.1737460349518</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R41" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S41" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T41" t="n">
         <v>16.18115843796693</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H42" t="n">
         <v>19.10108311477063</v>
       </c>
       <c r="I42" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J42" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K42" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L42" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M42" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N42" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O42" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P42" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q42" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R42" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S42" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T42" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U42" t="n">
         <v>0.1301163699916256</v>
@@ -34301,7 +34301,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N43" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O43" t="n">
         <v>234.3641835920855</v>
@@ -34310,19 +34310,19 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R43" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S43" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T43" t="n">
-        <v>7.084587489598668</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H44" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I44" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J44" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936342</v>
       </c>
       <c r="K44" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L44" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M44" t="n">
-        <v>649.0622128088318</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N44" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O44" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P44" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q44" t="n">
-        <v>399.1737460349518</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R44" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S44" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T44" t="n">
         <v>16.18115843796693</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H45" t="n">
         <v>19.10108311477063</v>
       </c>
       <c r="I45" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J45" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K45" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L45" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M45" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N45" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O45" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P45" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q45" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R45" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S45" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T45" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U45" t="n">
         <v>0.1301163699916256</v>
@@ -34538,7 +34538,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N46" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O46" t="n">
         <v>234.3641835920855</v>
@@ -34547,19 +34547,19 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R46" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S46" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T46" t="n">
-        <v>7.084587489598668</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K11" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L11" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M11" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N11" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891395</v>
       </c>
       <c r="O11" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P11" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605023</v>
       </c>
       <c r="R11" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722493</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>186.1091904063826</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K12" t="n">
-        <v>329.8669931509812</v>
+        <v>352.5043145717684</v>
       </c>
       <c r="L12" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M12" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N12" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O12" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P12" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q12" t="n">
-        <v>322.5559691322457</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R12" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058011</v>
       </c>
       <c r="K13" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295873</v>
       </c>
       <c r="L13" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M13" t="n">
         <v>299.4977962876914</v>
@@ -35582,13 +35582,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O13" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P13" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403615</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>92.62341400781931</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K15" t="n">
-        <v>445.9900909703316</v>
+        <v>352.5043145717674</v>
       </c>
       <c r="L15" t="n">
         <v>290.8730133158208</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K17" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L17" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M17" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N17" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O17" t="n">
-        <v>392.7100487188047</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P17" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R17" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722421</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K18" t="n">
-        <v>329.8669931509808</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L18" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M18" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N18" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O18" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P18" t="n">
-        <v>243.692693698696</v>
+        <v>414.6721543127105</v>
       </c>
       <c r="Q18" t="n">
-        <v>322.5559691322456</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R18" t="n">
-        <v>22.637321420787</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K19" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L19" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M19" t="n">
         <v>299.4977962876914</v>
       </c>
       <c r="N19" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O19" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P19" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K20" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L20" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M20" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N20" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O20" t="n">
-        <v>392.7100487188047</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P20" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R20" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>186.1091904063826</v>
+        <v>60.01815506597379</v>
       </c>
       <c r="K21" t="n">
-        <v>352.5043145717678</v>
+        <v>370.209869008089</v>
       </c>
       <c r="L21" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M21" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N21" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O21" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P21" t="n">
-        <v>243.692693698696</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q21" t="n">
-        <v>322.5559691322456</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K22" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L22" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M22" t="n">
         <v>299.4977962876914</v>
       </c>
       <c r="N22" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O22" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P22" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>132.6846713669508</v>
+        <v>139.8619362969968</v>
       </c>
       <c r="K23" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L23" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M23" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N23" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O23" t="n">
-        <v>392.7100487188047</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P23" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q23" t="n">
-        <v>249.7617409635316</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R23" t="n">
-        <v>16.61085138722495</v>
+        <v>82.32727126020745</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.01815506597373</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K24" t="n">
-        <v>443.1035538111178</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L24" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M24" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N24" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O24" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P24" t="n">
-        <v>562.1554623386332</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.4786813963965</v>
+        <v>279.3265561159236</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>22.63732142078703</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K25" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L25" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M25" t="n">
         <v>299.4977962876914</v>
       </c>
       <c r="N25" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O25" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P25" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q25" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>132.6846713669508</v>
+        <v>205.5783561699792</v>
       </c>
       <c r="K26" t="n">
-        <v>323.0046407605701</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L26" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M26" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N26" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O26" t="n">
-        <v>392.7100487188047</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P26" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q26" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R26" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K27" t="n">
-        <v>425.397999374797</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L27" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M27" t="n">
-        <v>358.9874790390621</v>
+        <v>554.8486722970912</v>
       </c>
       <c r="N27" t="n">
-        <v>383.042996192227</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="O27" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P27" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q27" t="n">
-        <v>322.5559691322456</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K28" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L28" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M28" t="n">
         <v>299.4977962876914</v>
       </c>
       <c r="N28" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O28" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P28" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q28" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>139.8619362969978</v>
+        <v>139.8619362969968</v>
       </c>
       <c r="K29" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L29" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M29" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N29" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O29" t="n">
-        <v>392.7100487188047</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P29" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R29" t="n">
-        <v>82.3272712602074</v>
+        <v>82.32727126020745</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.01815506597373</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K30" t="n">
-        <v>445.9900909703315</v>
+        <v>425.3979993747965</v>
       </c>
       <c r="L30" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M30" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N30" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O30" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P30" t="n">
-        <v>559.2689251794196</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K31" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L31" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M31" t="n">
         <v>299.4977962876914</v>
       </c>
       <c r="N31" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O31" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P31" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q31" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K32" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L32" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M32" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N32" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O32" t="n">
-        <v>392.7100487188047</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P32" t="n">
-        <v>373.2131298993172</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.8680561605024</v>
+        <v>184.0453210905482</v>
       </c>
       <c r="R32" t="n">
-        <v>16.61085138722495</v>
+        <v>82.32727126020745</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>142.879777390061</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K33" t="n">
-        <v>445.9900909703315</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L33" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M33" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N33" t="n">
-        <v>383.042996192227</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="O33" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P33" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q33" t="n">
-        <v>322.5559691322456</v>
+        <v>308.3398746544252</v>
       </c>
       <c r="R33" t="n">
-        <v>22.637321420787</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K34" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L34" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M34" t="n">
         <v>299.4977962876914</v>
       </c>
       <c r="N34" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O34" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P34" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q34" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K35" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L35" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M35" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N35" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O35" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P35" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.868056160503</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>186.1091904063826</v>
+        <v>60.01815506597376</v>
       </c>
       <c r="K36" t="n">
-        <v>181.5248539577529</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L36" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M36" t="n">
-        <v>358.9874790390621</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="N36" t="n">
-        <v>383.042996192227</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="O36" t="n">
-        <v>327.9652704179363</v>
+        <v>331.6978061219486</v>
       </c>
       <c r="P36" t="n">
-        <v>414.672154312711</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q36" t="n">
-        <v>322.5559691322456</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K37" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L37" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M37" t="n">
         <v>299.4977962876914</v>
@@ -37478,13 +37478,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O37" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P37" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q37" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K38" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L38" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M38" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N38" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O38" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P38" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q38" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722513</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K39" t="n">
-        <v>329.8669931509808</v>
+        <v>352.5043145717678</v>
       </c>
       <c r="L39" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M39" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N39" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O39" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P39" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q39" t="n">
-        <v>322.5559691322456</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R39" t="n">
-        <v>22.637321420787</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K40" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L40" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M40" t="n">
         <v>299.4977962876914</v>
@@ -37715,13 +37715,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O40" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P40" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K41" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L41" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161278</v>
       </c>
       <c r="M41" t="n">
-        <v>418.7159795815584</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N41" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O41" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P41" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>186.1091904063825</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K42" t="n">
-        <v>329.8669931509799</v>
+        <v>329.8669931509808</v>
       </c>
       <c r="L42" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M42" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N42" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O42" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P42" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q42" t="n">
-        <v>322.5559691322455</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R42" t="n">
-        <v>22.63732142078699</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K43" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L43" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M43" t="n">
         <v>299.4977962876914</v>
@@ -37952,13 +37952,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O43" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P43" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669479</v>
       </c>
       <c r="K44" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L44" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M44" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N44" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O44" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P44" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R44" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>186.1091904063825</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K45" t="n">
-        <v>352.504314571767</v>
+        <v>352.5043145717647</v>
       </c>
       <c r="L45" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M45" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N45" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O45" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P45" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q45" t="n">
-        <v>322.5559691322455</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K46" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L46" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M46" t="n">
         <v>299.4977962876914</v>
@@ -38189,13 +38189,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O46" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P46" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
